--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -577,16 +577,16 @@
         <v>45561</v>
       </c>
       <c r="B4" t="n">
-        <v>162.9215110711205</v>
+        <v>162.9214957270027</v>
       </c>
       <c r="C4" t="n">
-        <v>163.3595816094746</v>
+        <v>163.3595662240988</v>
       </c>
       <c r="D4" t="n">
-        <v>161.5674817670227</v>
+        <v>161.5674665504288</v>
       </c>
       <c r="E4" t="n">
-        <v>162.0155029296875</v>
+        <v>162.0154876708984</v>
       </c>
       <c r="F4" t="n">
         <v>20319300</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007678414446849358</v>
+        <v>0.007678319542645307</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002711174156841301</v>
+        <v>0.002711079720457032</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -612,16 +612,16 @@
         <v>45562</v>
       </c>
       <c r="B5" t="n">
-        <v>162.0951542750787</v>
+        <v>162.0951694277683</v>
       </c>
       <c r="C5" t="n">
-        <v>164.9724646610785</v>
+        <v>164.9724800827397</v>
       </c>
       <c r="D5" t="n">
-        <v>161.9159518858726</v>
+        <v>161.9159670218103</v>
       </c>
       <c r="E5" t="n">
-        <v>163.2301483154297</v>
+        <v>163.2301635742188</v>
       </c>
       <c r="F5" t="n">
         <v>21101300</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007497093573010316</v>
+        <v>0.007497282641198311</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0102285936561981</v>
+        <v>0.01022868809258237</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01158892898878428</v>
+        <v>0.01158883442524439</v>
       </c>
       <c r="J6" t="n">
         <v>0.02193606109051927</v>
@@ -822,16 +822,16 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>166.98361369115</v>
+        <v>166.9835979885841</v>
       </c>
       <c r="C11" t="n">
-        <v>167.7402713838118</v>
+        <v>167.7402556100924</v>
       </c>
       <c r="D11" t="n">
-        <v>162.0354336420075</v>
+        <v>162.0354184047515</v>
       </c>
       <c r="E11" t="n">
-        <v>162.2644195556641</v>
+        <v>162.264404296875</v>
       </c>
       <c r="F11" t="n">
         <v>22463100</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02442237303050332</v>
+        <v>-0.02442246477047483</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004251714893911851</v>
+        <v>0.004251620457527361</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -857,16 +857,16 @@
         <v>45573</v>
       </c>
       <c r="B12" t="n">
-        <v>163.2201936306042</v>
+        <v>163.2202088485495</v>
       </c>
       <c r="C12" t="n">
-        <v>164.0067183055417</v>
+        <v>164.0067335968191</v>
       </c>
       <c r="D12" t="n">
-        <v>162.1548843708489</v>
+        <v>162.1548994894693</v>
       </c>
       <c r="E12" t="n">
-        <v>163.6582641601562</v>
+        <v>163.6582794189453</v>
       </c>
       <c r="F12" t="n">
         <v>23072700</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0085899583427409</v>
+        <v>0.008590147223664024</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01287819529047662</v>
+        <v>0.01287828972686067</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01533027619764027</v>
+        <v>-0.01533036800398002</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.002649507197893808</v>
+        <v>-0.00264950719789403</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -951,7 +951,7 @@
         <v>0.001359140913862689</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.001293967337665403</v>
+        <v>-0.001293967337665625</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -986,7 +986,7 @@
         <v>0.007156961929800199</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005853733717160692</v>
+        <v>0.00585373371716047</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -997,16 +997,16 @@
         <v>45579</v>
       </c>
       <c r="B16" t="n">
-        <v>162.9215061976869</v>
+        <v>162.9215213343754</v>
       </c>
       <c r="C16" t="n">
-        <v>165.5001306537459</v>
+        <v>165.5001460300089</v>
       </c>
       <c r="D16" t="n">
-        <v>162.6825544952434</v>
+        <v>162.6825696097314</v>
       </c>
       <c r="E16" t="n">
-        <v>164.2357177734375</v>
+        <v>164.2357330322266</v>
       </c>
       <c r="F16" t="n">
         <v>19016100</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01053663345421252</v>
+        <v>0.01053672734100863</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01645204581788939</v>
+        <v>0.01645214025427366</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1032,16 +1032,16 @@
         <v>45580</v>
       </c>
       <c r="B17" t="n">
-        <v>165.0620734953521</v>
+        <v>165.0620582061315</v>
       </c>
       <c r="C17" t="n">
-        <v>166.9437746280731</v>
+        <v>166.943759164556</v>
       </c>
       <c r="D17" t="n">
-        <v>163.9071781528318</v>
+        <v>163.9071629705859</v>
       </c>
       <c r="E17" t="n">
-        <v>164.7335357666016</v>
+        <v>164.7335205078125</v>
       </c>
       <c r="F17" t="n">
         <v>20247200</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003031118930236554</v>
+        <v>0.00303093283291922</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01953303285564556</v>
+        <v>0.01953293841926129</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001813175407839429</v>
+        <v>-0.001813082948683875</v>
       </c>
       <c r="J18" t="n">
         <v>0.01768444063299168</v>
@@ -1102,16 +1102,16 @@
         <v>45582</v>
       </c>
       <c r="B19" t="n">
-        <v>165.0023239278116</v>
+        <v>165.0023084067954</v>
       </c>
       <c r="C19" t="n">
-        <v>165.6395132678631</v>
+        <v>165.6394976869095</v>
       </c>
       <c r="D19" t="n">
-        <v>162.0453631113151</v>
+        <v>162.0453478684468</v>
       </c>
       <c r="E19" t="n">
-        <v>162.2146148681641</v>
+        <v>162.214599609375</v>
       </c>
       <c r="F19" t="n">
         <v>21453400</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.01350218746479581</v>
+        <v>-0.01350228026014622</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003943474535559099</v>
+        <v>0.003943380099174831</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1137,16 +1137,16 @@
         <v>45583</v>
       </c>
       <c r="B20" t="n">
-        <v>162.4734982256496</v>
+        <v>162.4735134629636</v>
       </c>
       <c r="C20" t="n">
-        <v>163.9868287469439</v>
+        <v>163.9868441261831</v>
       </c>
       <c r="D20" t="n">
-        <v>162.3639805854548</v>
+        <v>162.3639958124978</v>
       </c>
       <c r="E20" t="n">
-        <v>162.7024841308594</v>
+        <v>162.7024993896484</v>
       </c>
       <c r="F20" t="n">
         <v>19757700</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003007554301391435</v>
+        <v>0.003007742715195327</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006962889050752485</v>
+        <v>0.006962983487136754</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003977540755912834</v>
+        <v>0.00397744659951349</v>
       </c>
       <c r="J21" t="n">
         <v>0.01096812498164357</v>
@@ -1250,16 +1250,16 @@
         <v>45588</v>
       </c>
       <c r="B23" t="n">
-        <v>164.0366101056425</v>
+        <v>164.0365946612512</v>
       </c>
       <c r="C23" t="n">
-        <v>165.0919689004305</v>
+        <v>165.0919533566749</v>
       </c>
       <c r="D23" t="n">
-        <v>161.2190334945938</v>
+        <v>161.2190183154833</v>
       </c>
       <c r="E23" t="n">
-        <v>162.0653076171875</v>
+        <v>162.0652923583984</v>
       </c>
       <c r="F23" t="n">
         <v>18280500</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01429082262554104</v>
+        <v>-0.01429091543213024</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003019414515193164</v>
+        <v>0.003019320078808674</v>
       </c>
       <c r="K23" t="n">
         <v>20046740</v>
       </c>
       <c r="L23" t="n">
-        <v>163.6164527893066</v>
+        <v>163.6164520263672</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1289,16 +1289,16 @@
         <v>45589</v>
       </c>
       <c r="B24" t="n">
-        <v>162.1150565659834</v>
+        <v>162.1150718350875</v>
       </c>
       <c r="C24" t="n">
-        <v>162.6128611927197</v>
+        <v>162.6128765087105</v>
       </c>
       <c r="D24" t="n">
-        <v>160.303040432603</v>
+        <v>160.3030555310391</v>
       </c>
       <c r="E24" t="n">
-        <v>162.0055389404297</v>
+        <v>162.0055541992188</v>
       </c>
       <c r="F24" t="n">
         <v>22412500</v>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0003687937760189497</v>
+        <v>-0.0003686055065237337</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002649507197893808</v>
+        <v>0.002649601634277854</v>
       </c>
       <c r="K24" t="n">
         <v>20151400</v>
       </c>
       <c r="L24" t="n">
-        <v>163.6159545898437</v>
+        <v>163.6159553527832</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1328,16 +1328,16 @@
         <v>45590</v>
       </c>
       <c r="B25" t="n">
-        <v>162.9513914150895</v>
+        <v>162.9513763040233</v>
       </c>
       <c r="C25" t="n">
-        <v>164.8629596722182</v>
+        <v>164.8629443838854</v>
       </c>
       <c r="D25" t="n">
-        <v>162.7024890609041</v>
+        <v>162.7024739729195</v>
       </c>
       <c r="E25" t="n">
-        <v>164.5443725585938</v>
+        <v>164.5443572998047</v>
       </c>
       <c r="F25" t="n">
         <v>19828900</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01567127664133516</v>
+        <v>0.01567108679165385</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01836230499949032</v>
+        <v>0.01836221056310583</v>
       </c>
       <c r="K25" t="n">
         <v>20087780</v>
       </c>
       <c r="L25" t="n">
-        <v>163.681665802002</v>
+        <v>163.6816650390625</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1367,16 +1367,16 @@
         <v>45593</v>
       </c>
       <c r="B26" t="n">
-        <v>168.0090770894666</v>
+        <v>168.0090925340481</v>
       </c>
       <c r="C26" t="n">
-        <v>168.0090770894666</v>
+        <v>168.0090925340481</v>
       </c>
       <c r="D26" t="n">
-        <v>163.2301491916742</v>
+        <v>163.230164196943</v>
       </c>
       <c r="E26" t="n">
-        <v>165.9879913330078</v>
+        <v>165.9880065917969</v>
       </c>
       <c r="F26" t="n">
         <v>32138600</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008773431457827607</v>
+        <v>0.008773617738600414</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02729683688163864</v>
+        <v>0.02729693131802269</v>
       </c>
       <c r="K26" t="n">
         <v>20674015</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01775424199745013</v>
+        <v>0.01775414843829726</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04553571352685037</v>
+        <v>0.04553571352685015</v>
       </c>
       <c r="K27" t="n">
         <v>21365560</v>
@@ -1445,16 +1445,16 @@
         <v>45595</v>
       </c>
       <c r="B28" t="n">
-        <v>179.8866759383424</v>
+        <v>179.8866917411499</v>
       </c>
       <c r="C28" t="n">
-        <v>181.220803908328</v>
+        <v>181.2208198283368</v>
       </c>
       <c r="D28" t="n">
-        <v>173.295747420342</v>
+        <v>173.2957626441451</v>
       </c>
       <c r="E28" t="n">
-        <v>173.6940002441406</v>
+        <v>173.6940155029297</v>
       </c>
       <c r="F28" t="n">
         <v>68890800</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02817070733100291</v>
+        <v>0.02817079765444475</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07498919411672667</v>
+        <v>0.07498928855311049</v>
       </c>
       <c r="K28" t="n">
         <v>23922090</v>
       </c>
       <c r="L28" t="n">
-        <v>164.286994934082</v>
+        <v>164.2869956970215</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01920205284801035</v>
+        <v>-0.01920213900981016</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05434719480025718</v>
+        <v>0.05434719480025674</v>
       </c>
       <c r="K29" t="n">
         <v>25406885</v>
       </c>
       <c r="L29" t="n">
-        <v>164.5483421325684</v>
+        <v>164.5483428955078</v>
       </c>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1547,13 +1547,13 @@
         <v>0.001051803870957047</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05545616126108088</v>
+        <v>0.05545616126108044</v>
       </c>
       <c r="K30" t="n">
         <v>26044340</v>
       </c>
       <c r="L30" t="n">
-        <v>164.758911895752</v>
+        <v>164.7589126586914</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1586,13 +1586,13 @@
         <v>-0.01196792662234225</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0428245393700093</v>
+        <v>0.04282453937000885</v>
       </c>
       <c r="K31" t="n">
         <v>25995820</v>
       </c>
       <c r="L31" t="n">
-        <v>165.0705368041992</v>
+        <v>165.0705383300781</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1625,13 +1625,13 @@
         <v>0.002954554057580827</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04590562084414973</v>
+        <v>0.04590562084414929</v>
       </c>
       <c r="K32" t="n">
         <v>25754290</v>
       </c>
       <c r="L32" t="n">
-        <v>165.3373611450195</v>
+        <v>165.337361907959</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1664,13 +1664,13 @@
         <v>0.03988437270885337</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08762091044418252</v>
+        <v>0.08762091044418208</v>
       </c>
       <c r="K33" t="n">
         <v>25879975</v>
       </c>
       <c r="L33" t="n">
-        <v>166.0666442871094</v>
+        <v>166.0666450500488</v>
       </c>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1703,13 +1703,13 @@
         <v>0.02402133755851898</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1137470194696659</v>
+        <v>0.1137470194696655</v>
       </c>
       <c r="K34" t="n">
         <v>26440415</v>
       </c>
       <c r="L34" t="n">
-        <v>166.9960456848144</v>
+        <v>166.9960464477539</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1742,13 +1742,13 @@
         <v>-0.01327793955071643</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09895875387035713</v>
+        <v>0.09895875387035669</v>
       </c>
       <c r="K35" t="n">
         <v>26773510</v>
       </c>
       <c r="L35" t="n">
-        <v>167.7482292175293</v>
+        <v>167.7482299804688</v>
       </c>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>0.01121386072233044</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1112823242758452</v>
+        <v>0.1112823242758447</v>
       </c>
       <c r="K36" t="n">
         <v>26695225</v>
@@ -1796,16 +1796,16 @@
         <v>45608</v>
       </c>
       <c r="B37" t="n">
-        <v>179.0304860695564</v>
+        <v>179.0304709619932</v>
       </c>
       <c r="C37" t="n">
-        <v>181.6887612921196</v>
+        <v>181.6887459602367</v>
       </c>
       <c r="D37" t="n">
-        <v>178.6023661362662</v>
+        <v>178.6023510648301</v>
       </c>
       <c r="E37" t="n">
-        <v>180.8225708007812</v>
+        <v>180.8225555419922</v>
       </c>
       <c r="F37" t="n">
         <v>25134900</v>
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.007041838796491007</v>
+        <v>0.007041753816839691</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1191077952607855</v>
+        <v>0.1191077008244006</v>
       </c>
       <c r="K37" t="n">
         <v>26939610</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01508642586217435</v>
+        <v>-0.01508634274981902</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1022244584758023</v>
+        <v>0.1022244584758019</v>
       </c>
       <c r="K38" t="n">
         <v>27278510</v>
@@ -1874,16 +1874,16 @@
         <v>45610</v>
       </c>
       <c r="B39" t="n">
-        <v>177.4972395857786</v>
+        <v>177.4972240923461</v>
       </c>
       <c r="C39" t="n">
-        <v>178.0348771600026</v>
+        <v>178.0348616196407</v>
       </c>
       <c r="D39" t="n">
-        <v>173.5546349365056</v>
+        <v>173.5546197872164</v>
       </c>
       <c r="E39" t="n">
-        <v>174.8090972900391</v>
+        <v>174.80908203125</v>
       </c>
       <c r="F39" t="n">
         <v>31007500</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0184481007244246</v>
+        <v>-0.01844818640242196</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08189051064491637</v>
+        <v>0.08189041620853166</v>
       </c>
       <c r="K39" t="n">
         <v>27756215</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.01759889262570102</v>
+        <v>-0.01759880687357018</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06285043571531168</v>
+        <v>0.06285043571531124</v>
       </c>
       <c r="K40" t="n">
         <v>28393560</v>
       </c>
       <c r="L40" t="n">
-        <v>171.0830230712891</v>
+        <v>171.0830223083496</v>
       </c>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -1976,13 +1976,13 @@
         <v>0.01629083604487414</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08016515790377277</v>
+        <v>0.08016515790377232</v>
       </c>
       <c r="K41" t="n">
         <v>28353000</v>
       </c>
       <c r="L41" t="n">
-        <v>171.6420570373535</v>
+        <v>171.6420562744141</v>
       </c>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -2015,13 +2015,13 @@
         <v>0.01608670172693372</v>
       </c>
       <c r="J42" t="n">
-        <v>0.09754145261479708</v>
+        <v>0.09754145261479663</v>
       </c>
       <c r="K42" t="n">
         <v>28696340</v>
       </c>
       <c r="L42" t="n">
-        <v>172.288207244873</v>
+        <v>172.2882064819336</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2054,7 +2054,7 @@
         <v>-0.01201443570174854</v>
       </c>
       <c r="J43" t="n">
-        <v>0.08435511140235286</v>
+        <v>0.08435511140235241</v>
       </c>
       <c r="K43" t="n">
         <v>28732170</v>
@@ -2093,13 +2093,13 @@
         <v>-0.04744849655389594</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03290409163577879</v>
+        <v>0.03290409163577834</v>
       </c>
       <c r="K44" t="n">
         <v>30598265</v>
       </c>
       <c r="L44" t="n">
-        <v>173.1897308349609</v>
+        <v>173.1897300720215</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>-0.01712108682325542</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01521965100278688</v>
+        <v>0.01521965100278644</v>
       </c>
       <c r="K45" t="n">
         <v>31537050</v>
@@ -2171,13 +2171,13 @@
         <v>0.01754062350992558</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03302723668090479</v>
+        <v>0.03302723668090435</v>
       </c>
       <c r="K46" t="n">
         <v>31586885</v>
       </c>
       <c r="L46" t="n">
-        <v>173.2106369018555</v>
+        <v>173.210636138916</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>0.00876827394130042</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04208510248094766</v>
+        <v>0.04208510248094721</v>
       </c>
       <c r="K47" t="n">
         <v>30502770</v>
       </c>
       <c r="L47" t="n">
-        <v>173.1827598571777</v>
+        <v>173.1827590942383</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2249,13 +2249,13 @@
         <v>0.0006504884916642695</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04276296684744629</v>
+        <v>0.04276296684744585</v>
       </c>
       <c r="K48" t="n">
         <v>28021555</v>
       </c>
       <c r="L48" t="n">
-        <v>172.9224082946777</v>
+        <v>172.9224067687988</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2288,13 +2288,13 @@
         <v>-0.001654597253640255</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04103761410630269</v>
+        <v>0.04103761410630224</v>
       </c>
       <c r="K49" t="n">
         <v>26495965</v>
       </c>
       <c r="L49" t="n">
-        <v>172.8148818969727</v>
+        <v>172.8148803710938</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2327,13 +2327,13 @@
         <v>0.01503407388377687</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05668865051256766</v>
+        <v>0.05668865051256722</v>
       </c>
       <c r="K50" t="n">
         <v>26095595</v>
       </c>
       <c r="L50" t="n">
-        <v>172.8248390197754</v>
+        <v>172.8248374938965</v>
       </c>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -2342,16 +2342,16 @@
         <v>45629</v>
       </c>
       <c r="B51" t="n">
-        <v>170.737042769456</v>
+        <v>170.7370274973077</v>
       </c>
       <c r="C51" t="n">
-        <v>171.9218050645491</v>
+        <v>171.9217896864258</v>
       </c>
       <c r="D51" t="n">
-        <v>170.0998534309368</v>
+        <v>170.0998382157841</v>
       </c>
       <c r="E51" t="n">
-        <v>170.5876922607422</v>
+        <v>170.5876770019531</v>
       </c>
       <c r="F51" t="n">
         <v>22248700</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.0008747546678680163</v>
+        <v>-0.000874844037981215</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0557643071830487</v>
+        <v>0.05576421274666399</v>
       </c>
       <c r="K51" t="n">
         <v>26133395</v>
       </c>
       <c r="L51" t="n">
-        <v>172.929377746582</v>
+        <v>172.9293754577637</v>
       </c>
       <c r="M51" t="n">
-        <v>167.9567086791992</v>
+        <v>167.9567080688477</v>
       </c>
     </row>
     <row r="52">
@@ -2383,16 +2383,16 @@
         <v>45630</v>
       </c>
       <c r="B52" t="n">
-        <v>170.3985222774866</v>
+        <v>170.3985372544995</v>
       </c>
       <c r="C52" t="n">
-        <v>174.1420228948394</v>
+        <v>174.1420382008836</v>
       </c>
       <c r="D52" t="n">
-        <v>170.3089210882735</v>
+        <v>170.3089360574109</v>
       </c>
       <c r="E52" t="n">
-        <v>173.6043853759766</v>
+        <v>173.6044006347656</v>
       </c>
       <c r="F52" t="n">
         <v>31615100</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01768411938314629</v>
+        <v>0.01768429986169484</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07443456923173852</v>
+        <v>0.07443466366812213</v>
       </c>
       <c r="K52" t="n">
         <v>26802045</v>
       </c>
       <c r="L52" t="n">
-        <v>173.1598594665527</v>
+        <v>173.1598579406738</v>
       </c>
       <c r="M52" t="n">
-        <v>168.1972476196289</v>
+        <v>168.1972473144531</v>
       </c>
     </row>
     <row r="53">
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.009921302322327241</v>
+        <v>-0.009921389344326403</v>
       </c>
       <c r="J53" t="n">
-        <v>0.06377477904483109</v>
+        <v>0.0637747790448302</v>
       </c>
       <c r="K53" t="n">
         <v>26185080</v>
       </c>
       <c r="L53" t="n">
-        <v>172.9672096252442</v>
+        <v>172.9672080993652</v>
       </c>
       <c r="M53" t="n">
-        <v>168.4192684936523</v>
+        <v>168.4192681884766</v>
       </c>
     </row>
     <row r="54">
@@ -2489,13 +2489,13 @@
         <v>0.01199027845012357</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07652973485379722</v>
+        <v>0.07652973485379633</v>
       </c>
       <c r="K54" t="n">
         <v>25990555</v>
       </c>
       <c r="L54" t="n">
-        <v>172.666535949707</v>
+        <v>172.6665344238281</v>
       </c>
       <c r="M54" t="n">
         <v>168.6578167724609</v>
@@ -2506,16 +2506,16 @@
         <v>45635</v>
       </c>
       <c r="B55" t="n">
-        <v>173.3947033817355</v>
+        <v>173.3947185178427</v>
       </c>
       <c r="C55" t="n">
-        <v>175.6872170961055</v>
+        <v>175.6872324323326</v>
       </c>
       <c r="D55" t="n">
-        <v>173.085697987162</v>
+        <v>173.0857130962953</v>
       </c>
       <c r="E55" t="n">
-        <v>174.8001098632812</v>
+        <v>174.8001251220703</v>
       </c>
       <c r="F55" t="n">
         <v>25389600</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.004928013215991678</v>
+        <v>0.004928100938960345</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0818348876145647</v>
+        <v>0.08183498205094808</v>
       </c>
       <c r="K55" t="n">
         <v>26159725</v>
       </c>
       <c r="L55" t="n">
-        <v>172.5281944274902</v>
+        <v>172.5281936645508</v>
       </c>
       <c r="M55" t="n">
         <v>168.889216003418</v>
@@ -2568,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05588187539827327</v>
+        <v>0.05588178322740789</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1422898500057468</v>
+        <v>0.1422898500057459</v>
       </c>
       <c r="K56" t="n">
         <v>28027855</v>
       </c>
       <c r="L56" t="n">
-        <v>172.7787002563477</v>
+        <v>172.7786994934082</v>
       </c>
       <c r="M56" t="n">
         <v>169.2781451416016</v>
@@ -2612,7 +2612,7 @@
         <v>0.05524656109781634</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2053974359955046</v>
+        <v>0.2053974359955038</v>
       </c>
       <c r="K57" t="n">
         <v>30165815</v>
@@ -2629,16 +2629,16 @@
         <v>45638</v>
       </c>
       <c r="B58" t="n">
-        <v>194.3663266612831</v>
+        <v>194.3663111608468</v>
       </c>
       <c r="C58" t="n">
-        <v>194.5457344316295</v>
+        <v>194.5457189168856</v>
       </c>
       <c r="D58" t="n">
-        <v>191.0870245599194</v>
+        <v>191.0870093210027</v>
       </c>
       <c r="E58" t="n">
-        <v>191.3362121582031</v>
+        <v>191.3361968994141</v>
       </c>
       <c r="F58" t="n">
         <v>34817500</v>
@@ -2650,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.01760489421872447</v>
+        <v>-0.01760497256332805</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1841765416432821</v>
+        <v>0.184176447206897</v>
       </c>
       <c r="K58" t="n">
         <v>30747490</v>
       </c>
       <c r="L58" t="n">
-        <v>174.1379035949707</v>
+        <v>174.1379028320312</v>
       </c>
       <c r="M58" t="n">
-        <v>170.3723983764648</v>
+        <v>170.3723980712891</v>
       </c>
     </row>
     <row r="59">
@@ -2670,16 +2670,16 @@
         <v>45639</v>
       </c>
       <c r="B59" t="n">
-        <v>190.389275638162</v>
+        <v>190.3892909926089</v>
       </c>
       <c r="C59" t="n">
-        <v>192.1036874277226</v>
+        <v>192.1037029204328</v>
       </c>
       <c r="D59" t="n">
-        <v>189.0237325488458</v>
+        <v>189.0237477931648</v>
       </c>
       <c r="E59" t="n">
-        <v>189.2031555175781</v>
+        <v>189.2031707763672</v>
       </c>
       <c r="F59" t="n">
         <v>25143500</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.01114821191746662</v>
+        <v>-0.01114805330937052</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1709750906093501</v>
+        <v>0.1709751850457335</v>
       </c>
       <c r="K59" t="n">
         <v>30454290</v>
       </c>
       <c r="L59" t="n">
-        <v>174.8576065063477</v>
+        <v>174.8576072692871</v>
       </c>
       <c r="M59" t="n">
         <v>170.8538259887695</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03603417460118519</v>
+        <v>0.03603409104747501</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2131702114780061</v>
+        <v>0.2131702114780054</v>
       </c>
       <c r="K60" t="n">
         <v>31075805</v>
       </c>
       <c r="L60" t="n">
-        <v>176.0720207214355</v>
+        <v>176.072021484375</v>
       </c>
       <c r="M60" t="n">
         <v>171.4477145385742</v>
@@ -2776,16 +2776,16 @@
         <v>-0.006305332501766236</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2055207699133992</v>
+        <v>0.2055207699133985</v>
       </c>
       <c r="K61" t="n">
         <v>32244240</v>
       </c>
       <c r="L61" t="n">
-        <v>177.0847526550293</v>
+        <v>177.0847534179688</v>
       </c>
       <c r="M61" t="n">
-        <v>172.0981253051758</v>
+        <v>172.0981256103516</v>
       </c>
     </row>
     <row r="62">
@@ -2817,13 +2817,13 @@
         <v>-0.03592265264608852</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1622152660381548</v>
+        <v>0.1622152660381544</v>
       </c>
       <c r="K62" t="n">
         <v>32780800</v>
       </c>
       <c r="L62" t="n">
-        <v>177.6072441101074</v>
+        <v>177.6072448730469</v>
       </c>
       <c r="M62" t="n">
         <v>172.5807153320312</v>
@@ -2834,16 +2834,16 @@
         <v>45645</v>
       </c>
       <c r="B63" t="n">
-        <v>191.0072867966161</v>
+        <v>191.0072712852803</v>
       </c>
       <c r="C63" t="n">
-        <v>192.4027312932273</v>
+        <v>192.4027156685701</v>
       </c>
       <c r="D63" t="n">
-        <v>187.7678479495074</v>
+        <v>187.7678327012403</v>
       </c>
       <c r="E63" t="n">
-        <v>187.8974151611328</v>
+        <v>187.8973999023438</v>
       </c>
       <c r="F63" t="n">
         <v>32265200</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0005839020338169743</v>
+        <v>0.0005838207783155358</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1628938858957276</v>
+        <v>0.1628937914593429</v>
       </c>
       <c r="K63" t="n">
         <v>33444205</v>
@@ -2867,7 +2867,7 @@
         <v>178.2417488098145</v>
       </c>
       <c r="M63" t="n">
-        <v>173.1156768798828</v>
+        <v>173.115676574707</v>
       </c>
     </row>
     <row r="64">
@@ -2875,16 +2875,16 @@
         <v>45646</v>
       </c>
       <c r="B64" t="n">
-        <v>185.1762848637503</v>
+        <v>185.1762996737276</v>
       </c>
       <c r="C64" t="n">
-        <v>192.263180692445</v>
+        <v>192.2631960692161</v>
       </c>
       <c r="D64" t="n">
-        <v>184.6181070829637</v>
+        <v>184.6181218482993</v>
       </c>
       <c r="E64" t="n">
-        <v>190.7879943847656</v>
+        <v>190.7880096435547</v>
       </c>
       <c r="F64" t="n">
         <v>63462900</v>
@@ -2896,16 +2896,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01538381579732739</v>
+        <v>0.01538397946279879</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1807836312281859</v>
+        <v>0.1807837256645697</v>
       </c>
       <c r="K64" t="n">
         <v>33630630</v>
       </c>
       <c r="L64" t="n">
-        <v>179.4364486694336</v>
+        <v>179.4364494323731</v>
       </c>
       <c r="M64" t="n">
         <v>173.704069519043</v>
@@ -2937,16 +2937,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01682259389824381</v>
+        <v>0.01682251257509604</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2006474747380314</v>
+        <v>0.2006474747380307</v>
       </c>
       <c r="K65" t="n">
         <v>32984150</v>
       </c>
       <c r="L65" t="n">
-        <v>180.9344963073731</v>
+        <v>180.9344970703125</v>
       </c>
       <c r="M65" t="n">
         <v>174.3335549926758</v>
@@ -2981,16 +2981,16 @@
         <v>0.007604085726220955</v>
       </c>
       <c r="J66" t="n">
-        <v>0.20977730106291</v>
+        <v>0.2097773010629094</v>
       </c>
       <c r="K66" t="n">
         <v>31847550</v>
       </c>
       <c r="L66" t="n">
-        <v>182.3624374389648</v>
+        <v>182.3624382019043</v>
       </c>
       <c r="M66" t="n">
-        <v>174.9582949829102</v>
+        <v>174.9582946777344</v>
       </c>
     </row>
     <row r="67">
@@ -3022,13 +3022,13 @@
         <v>-0.00260052300846958</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2066312473563716</v>
+        <v>0.206631247356371</v>
       </c>
       <c r="K67" t="n">
         <v>31425545</v>
       </c>
       <c r="L67" t="n">
-        <v>183.6917846679688</v>
+        <v>183.6917854309082</v>
       </c>
       <c r="M67" t="n">
         <v>175.5629119873047</v>
@@ -3063,13 +3063,13 @@
         <v>-0.01451955070545263</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1891115037775972</v>
+        <v>0.1891115037775966</v>
       </c>
       <c r="K68" t="n">
         <v>31406790</v>
       </c>
       <c r="L68" t="n">
-        <v>184.8741157531738</v>
+        <v>184.8741165161133</v>
       </c>
       <c r="M68" t="n">
         <v>176.1168869018555</v>
@@ -3104,16 +3104,16 @@
         <v>-0.007885294298205281</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1797350096169295</v>
+        <v>0.1797350096169288</v>
       </c>
       <c r="K69" t="n">
         <v>31407165</v>
       </c>
       <c r="L69" t="n">
-        <v>185.9946342468262</v>
+        <v>185.9946350097656</v>
       </c>
       <c r="M69" t="n">
-        <v>176.6849658203125</v>
+        <v>176.6849661254883</v>
       </c>
     </row>
     <row r="70">
@@ -3145,13 +3145,13 @@
         <v>-0.01014434561618294</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1677673699438644</v>
+        <v>0.1677673699438638</v>
       </c>
       <c r="K70" t="n">
         <v>31091055</v>
       </c>
       <c r="L70" t="n">
-        <v>186.8920249938965</v>
+        <v>186.8920257568359</v>
       </c>
       <c r="M70" t="n">
         <v>177.2046133422851</v>
@@ -3162,16 +3162,16 @@
         <v>45659</v>
       </c>
       <c r="B71" t="n">
-        <v>190.0304593226936</v>
+        <v>190.0304746797551</v>
       </c>
       <c r="C71" t="n">
-        <v>191.3760784580334</v>
+        <v>191.3760939238393</v>
       </c>
       <c r="D71" t="n">
-        <v>186.8907016191732</v>
+        <v>186.8907167224993</v>
       </c>
       <c r="E71" t="n">
-        <v>188.8144226074219</v>
+        <v>188.8144378662109</v>
       </c>
       <c r="F71" t="n">
         <v>20370800</v>
@@ -3183,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0006866601685588947</v>
+        <v>0.0006867410377342509</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1685692292829477</v>
+        <v>0.1685693237193313</v>
       </c>
       <c r="K71" t="n">
         <v>30997160</v>
       </c>
       <c r="L71" t="n">
-        <v>187.8033615112305</v>
+        <v>187.8033638000488</v>
       </c>
       <c r="M71" t="n">
-        <v>177.713908996582</v>
+        <v>177.7139093017578</v>
       </c>
     </row>
     <row r="72">
@@ -3224,19 +3224,19 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01245839913587554</v>
+        <v>0.01245831731538893</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1831277311592572</v>
+        <v>0.1831277311592563</v>
       </c>
       <c r="K72" t="n">
         <v>30346215</v>
       </c>
       <c r="L72" t="n">
-        <v>188.6814796447754</v>
+        <v>188.6814811706543</v>
       </c>
       <c r="M72" t="n">
-        <v>178.2489453125</v>
+        <v>178.2489456176758</v>
       </c>
     </row>
     <row r="73">
@@ -3268,16 +3268,16 @@
         <v>0.02648738408646523</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2144656897978205</v>
+        <v>0.2144656897978197</v>
       </c>
       <c r="K73" t="n">
         <v>30756585</v>
       </c>
       <c r="L73" t="n">
-        <v>189.8988922119141</v>
+        <v>189.898893737793</v>
       </c>
       <c r="M73" t="n">
-        <v>178.9322442626953</v>
+        <v>178.9322448730469</v>
       </c>
     </row>
     <row r="74">
@@ -3285,16 +3285,16 @@
         <v>45664</v>
       </c>
       <c r="B74" t="n">
-        <v>196.469467069045</v>
+        <v>196.4694824542812</v>
       </c>
       <c r="C74" t="n">
-        <v>200.3468254203036</v>
+        <v>200.3468411091701</v>
       </c>
       <c r="D74" t="n">
-        <v>193.9676291025426</v>
+        <v>193.9676442918635</v>
       </c>
       <c r="E74" t="n">
-        <v>194.854736328125</v>
+        <v>194.8547515869141</v>
       </c>
       <c r="F74" t="n">
         <v>26487200</v>
@@ -3306,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.007009718241145935</v>
+        <v>-0.007009640481531076</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2059526274987988</v>
+        <v>0.2059527219351822</v>
       </c>
       <c r="K74" t="n">
         <v>31007825</v>
       </c>
       <c r="L74" t="n">
-        <v>190.9444831848145</v>
+        <v>190.9444854736328</v>
       </c>
       <c r="M74" t="n">
-        <v>179.5892282104492</v>
+        <v>179.5892288208008</v>
       </c>
     </row>
     <row r="75">
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.007877603758809748</v>
+        <v>-0.007877681450455642</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1964526105474678</v>
+        <v>0.1964526105474669</v>
       </c>
       <c r="K75" t="n">
         <v>30981585</v>
       </c>
       <c r="L75" t="n">
-        <v>191.8704650878906</v>
+        <v>191.8704666137695</v>
       </c>
       <c r="M75" t="n">
-        <v>180.1647357177734</v>
+        <v>180.1647366333008</v>
       </c>
     </row>
     <row r="76">
@@ -3367,16 +3367,16 @@
         <v>45667</v>
       </c>
       <c r="B76" t="n">
-        <v>193.6685895212531</v>
+        <v>193.6686049596142</v>
       </c>
       <c r="C76" t="n">
-        <v>195.8813764404304</v>
+        <v>195.8813920551846</v>
       </c>
       <c r="D76" t="n">
-        <v>189.6915502834447</v>
+        <v>189.6915654047747</v>
       </c>
       <c r="E76" t="n">
-        <v>191.4159240722656</v>
+        <v>191.4159393310547</v>
       </c>
       <c r="F76" t="n">
         <v>26665200</v>
@@ -3388,19 +3388,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.009848056771104341</v>
+        <v>-0.009847977840786948</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1846698773148603</v>
+        <v>0.1846699717512437</v>
       </c>
       <c r="K76" t="n">
         <v>29574195</v>
       </c>
       <c r="L76" t="n">
-        <v>192.2128479003906</v>
+        <v>192.212850189209</v>
       </c>
       <c r="M76" t="n">
-        <v>180.6732943725586</v>
+        <v>180.6732952880859</v>
       </c>
     </row>
     <row r="77">
@@ -3408,16 +3408,16 @@
         <v>45670</v>
       </c>
       <c r="B77" t="n">
-        <v>189.4523648405139</v>
+        <v>189.4523496568155</v>
       </c>
       <c r="C77" t="n">
-        <v>190.5587432363075</v>
+        <v>190.5587279639381</v>
       </c>
       <c r="D77" t="n">
-        <v>186.7511644359702</v>
+        <v>186.75114946876</v>
       </c>
       <c r="E77" t="n">
-        <v>190.3892974853516</v>
+        <v>190.3892822265625</v>
       </c>
       <c r="F77" t="n">
         <v>21823700</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.00536332905368142</v>
+        <v>-0.00536348805684661</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1783161029428364</v>
+        <v>0.178316008506451</v>
       </c>
       <c r="K77" t="n">
         <v>27270675</v>
       </c>
       <c r="L77" t="n">
-        <v>191.9940612792969</v>
+        <v>191.9940628051758</v>
       </c>
       <c r="M77" t="n">
-        <v>181.1023806762695</v>
+        <v>181.1023812866211</v>
       </c>
     </row>
     <row r="78">
@@ -3470,19 +3470,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.007067765094086909</v>
+        <v>-0.007067685515324107</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1699880415206565</v>
+        <v>0.1699880415206554</v>
       </c>
       <c r="K78" t="n">
         <v>26388545</v>
       </c>
       <c r="L78" t="n">
-        <v>191.8794342041016</v>
+        <v>191.8794364929199</v>
       </c>
       <c r="M78" t="n">
-        <v>181.4093740844727</v>
+        <v>181.4093743896484</v>
       </c>
     </row>
     <row r="79">
@@ -3514,16 +3514,16 @@
         <v>0.0310556013213481</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2063227236888669</v>
+        <v>0.2063227236888658</v>
       </c>
       <c r="K79" t="n">
         <v>26220170</v>
       </c>
       <c r="L79" t="n">
-        <v>192.1650032043457</v>
+        <v>192.1650047302246</v>
       </c>
       <c r="M79" t="n">
-        <v>181.9004904174805</v>
+        <v>181.9004907226563</v>
       </c>
     </row>
     <row r="80">
@@ -3531,16 +3531,16 @@
         <v>45673</v>
       </c>
       <c r="B80" t="n">
-        <v>193.5091102308218</v>
+        <v>193.509125586901</v>
       </c>
       <c r="C80" t="n">
-        <v>194.8447520350506</v>
+        <v>194.8447674971208</v>
       </c>
       <c r="D80" t="n">
-        <v>192.1834304546711</v>
+        <v>192.1834457055499</v>
       </c>
       <c r="E80" t="n">
-        <v>192.2831115722656</v>
+        <v>192.2831268310547</v>
       </c>
       <c r="F80" t="n">
         <v>17815400</v>
@@ -3552,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.01350039874215581</v>
+        <v>-0.01350032045764493</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1900368859073438</v>
+        <v>0.1900369803437272</v>
       </c>
       <c r="K80" t="n">
         <v>24864195</v>
       </c>
       <c r="L80" t="n">
-        <v>191.9781120300293</v>
+        <v>191.9781143188476</v>
       </c>
       <c r="M80" t="n">
-        <v>182.3353945922852</v>
+        <v>182.3353952026367</v>
       </c>
     </row>
     <row r="81">
@@ -3572,16 +3572,16 @@
         <v>45674</v>
       </c>
       <c r="B81" t="n">
-        <v>195.8913593931356</v>
+        <v>195.8913440930856</v>
       </c>
       <c r="C81" t="n">
-        <v>196.5890816473153</v>
+        <v>196.5890662927698</v>
       </c>
       <c r="D81" t="n">
-        <v>193.1203944342477</v>
+        <v>193.1203793506233</v>
       </c>
       <c r="E81" t="n">
-        <v>195.3630828857422</v>
+        <v>195.3630676269531</v>
       </c>
       <c r="F81" t="n">
         <v>27735100</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01601789823501498</v>
+        <v>0.01601773825222086</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2090987756417217</v>
+        <v>0.2090986812053364</v>
       </c>
       <c r="K81" t="n">
         <v>24075750</v>
       </c>
       <c r="L81" t="n">
-        <v>192.0070182800293</v>
+        <v>192.0070198059082</v>
       </c>
       <c r="M81" t="n">
-        <v>182.8727178955078</v>
+        <v>182.8727182006836</v>
       </c>
     </row>
     <row r="82">
@@ -3634,19 +3634,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01045916623936849</v>
+        <v>0.01045924516105745</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2217449407359755</v>
+        <v>0.2217449407359742</v>
       </c>
       <c r="K82" t="n">
         <v>23866010</v>
       </c>
       <c r="L82" t="n">
-        <v>192.4879508972168</v>
+        <v>192.4879524230957</v>
       </c>
       <c r="M82" t="n">
-        <v>183.4409512329102</v>
+        <v>183.4409515380859</v>
       </c>
     </row>
     <row r="83">
@@ -3678,16 +3678,16 @@
         <v>0.001615724915393413</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2237189444769785</v>
+        <v>0.2237189444769772</v>
       </c>
       <c r="K83" t="n">
         <v>23562780</v>
       </c>
       <c r="L83" t="n">
-        <v>192.9793487548828</v>
+        <v>192.9793510437012</v>
       </c>
       <c r="M83" t="n">
-        <v>183.8807586669922</v>
+        <v>183.880758972168</v>
       </c>
     </row>
     <row r="84">
@@ -3719,16 +3719,16 @@
         <v>-0.00196594724701793</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2213131775869603</v>
+        <v>0.221313177586959</v>
       </c>
       <c r="K84" t="n">
         <v>21737205</v>
       </c>
       <c r="L84" t="n">
-        <v>193.3067817687988</v>
+        <v>193.3067832946777</v>
       </c>
       <c r="M84" t="n">
-        <v>184.2283639526367</v>
+        <v>184.2283642578125</v>
       </c>
     </row>
     <row r="85">
@@ -3760,16 +3760,16 @@
         <v>0.01126373509538459</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2350697256878023</v>
+        <v>0.2350697256878009</v>
       </c>
       <c r="K85" t="n">
         <v>21647330</v>
       </c>
       <c r="L85" t="n">
-        <v>193.5848747253418</v>
+        <v>193.5848762512207</v>
       </c>
       <c r="M85" t="n">
-        <v>184.6682131958008</v>
+        <v>184.6682135009765</v>
       </c>
     </row>
     <row r="86">
@@ -3777,16 +3777,16 @@
         <v>45684</v>
       </c>
       <c r="B86" t="n">
-        <v>191.7847629127979</v>
+        <v>191.7847476062774</v>
       </c>
       <c r="C86" t="n">
-        <v>196.2402387613298</v>
+        <v>196.2402230992136</v>
       </c>
       <c r="D86" t="n">
-        <v>190.1102142027994</v>
+        <v>190.1101990299262</v>
       </c>
       <c r="E86" t="n">
-        <v>191.1867065429688</v>
+        <v>191.1866912841797</v>
       </c>
       <c r="F86" t="n">
         <v>41728900</v>
@@ -3798,16 +3798,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.04195590796221993</v>
+        <v>-0.0419559844246109</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1832512539499207</v>
+        <v>0.1832511595135351</v>
       </c>
       <c r="K86" t="n">
         <v>23213610</v>
       </c>
       <c r="L86" t="n">
-        <v>193.3705741882324</v>
+        <v>193.3705749511719</v>
       </c>
       <c r="M86" t="n">
         <v>184.9007843017578</v>
@@ -3839,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01819505663862531</v>
+        <v>0.01819513790172733</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2047805775332638</v>
+        <v>0.2047805775332627</v>
       </c>
       <c r="K87" t="n">
         <v>23819175</v>
       </c>
       <c r="L87" t="n">
-        <v>193.3556228637695</v>
+        <v>193.355623626709</v>
       </c>
       <c r="M87" t="n">
-        <v>185.1776400756836</v>
+        <v>185.1776403808594</v>
       </c>
     </row>
     <row r="88">
@@ -3883,16 +3883,16 @@
         <v>0.0005631941897485948</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2054591029544526</v>
+        <v>0.2054591029544515</v>
       </c>
       <c r="K88" t="n">
         <v>23785520</v>
       </c>
       <c r="L88" t="n">
-        <v>193.4876930236816</v>
+        <v>193.4876937866211</v>
       </c>
       <c r="M88" t="n">
-        <v>185.5112478637695</v>
+        <v>185.5112481689453</v>
       </c>
     </row>
     <row r="89">
@@ -3924,16 +3924,16 @@
         <v>0.0279412702488897</v>
       </c>
       <c r="J89" t="n">
-        <v>0.239141161524087</v>
+        <v>0.2391411615240859</v>
       </c>
       <c r="K89" t="n">
         <v>24290020</v>
       </c>
       <c r="L89" t="n">
-        <v>193.9676277160644</v>
+        <v>193.9676284790039</v>
       </c>
       <c r="M89" t="n">
-        <v>186.0194110107422</v>
+        <v>186.0194116210938</v>
       </c>
     </row>
     <row r="90">
@@ -3941,16 +3941,16 @@
         <v>45688</v>
       </c>
       <c r="B90" t="n">
-        <v>201.3435850375318</v>
+        <v>201.3435699298202</v>
       </c>
       <c r="C90" t="n">
-        <v>204.8122722439576</v>
+        <v>204.8122568759748</v>
       </c>
       <c r="D90" t="n">
-        <v>201.1442379951771</v>
+        <v>201.1442229024234</v>
       </c>
       <c r="E90" t="n">
-        <v>203.3570251464844</v>
+        <v>203.3570098876953</v>
       </c>
       <c r="F90" t="n">
         <v>32001100</v>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01568181780076228</v>
+        <v>0.01568174158960312</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2585731474485327</v>
+        <v>0.2585730530121473</v>
       </c>
       <c r="K90" t="n">
         <v>25016730</v>
@@ -3974,7 +3974,7 @@
         <v>194.7012359619141</v>
       </c>
       <c r="M90" t="n">
-        <v>186.6518984985352</v>
+        <v>186.6518988037109</v>
       </c>
     </row>
     <row r="91">
@@ -3982,16 +3982,16 @@
         <v>45691</v>
       </c>
       <c r="B91" t="n">
-        <v>200.0378417940518</v>
+        <v>200.0378265762092</v>
       </c>
       <c r="C91" t="n">
-        <v>203.0878956087398</v>
+        <v>203.0878801588649</v>
       </c>
       <c r="D91" t="n">
-        <v>199.4497627036024</v>
+        <v>199.4497475304977</v>
       </c>
       <c r="E91" t="n">
-        <v>200.5760803222656</v>
+        <v>200.5760650634766</v>
       </c>
       <c r="F91" t="n">
         <v>27838300</v>
@@ -4003,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.01367518443100524</v>
+        <v>-0.01367518545711577</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2413619275372632</v>
+        <v>0.2413618331008778</v>
       </c>
       <c r="K91" t="n">
         <v>25390105</v>
       </c>
       <c r="L91" t="n">
-        <v>195.2893188476563</v>
+        <v>195.2893173217773</v>
       </c>
       <c r="M91" t="n">
         <v>187.1728137207031</v>
@@ -4023,16 +4023,16 @@
         <v>45692</v>
       </c>
       <c r="B92" t="n">
-        <v>202.7290614411804</v>
+        <v>202.7290764789022</v>
       </c>
       <c r="C92" t="n">
-        <v>206.3771715228823</v>
+        <v>206.3771868312079</v>
       </c>
       <c r="D92" t="n">
-        <v>202.1509443892273</v>
+        <v>202.1509593840665</v>
       </c>
       <c r="E92" t="n">
-        <v>205.7093505859375</v>
+        <v>205.7093658447266</v>
       </c>
       <c r="F92" t="n">
         <v>43856400</v>
@@ -4044,19 +4044,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02559263425341762</v>
+        <v>0.0255927883500231</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2731316493248419</v>
+        <v>0.2731317437612253</v>
       </c>
       <c r="K92" t="n">
         <v>26653115</v>
       </c>
       <c r="L92" t="n">
-        <v>196.0164489746094</v>
+        <v>196.0164482116699</v>
       </c>
       <c r="M92" t="n">
-        <v>187.7402420043945</v>
+        <v>187.7402423095703</v>
       </c>
     </row>
     <row r="93">
@@ -4064,16 +4064,16 @@
         <v>45693</v>
       </c>
       <c r="B93" t="n">
-        <v>190.4491175677977</v>
+        <v>190.4491023297435</v>
       </c>
       <c r="C93" t="n">
-        <v>192.1236510390818</v>
+        <v>192.1236356670462</v>
       </c>
       <c r="D93" t="n">
-        <v>187.4189876542289</v>
+        <v>187.4189726586189</v>
       </c>
       <c r="E93" t="n">
-        <v>190.7082672119141</v>
+        <v>190.708251953125</v>
       </c>
       <c r="F93" t="n">
         <v>70373900</v>
@@ -4085,16 +4085,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.07292368252242654</v>
+        <v>-0.07292382546609322</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1802902011202239</v>
+        <v>0.1802901066838387</v>
       </c>
       <c r="K93" t="n">
         <v>28693630</v>
       </c>
       <c r="L93" t="n">
-        <v>195.7403495788574</v>
+        <v>195.7403480529785</v>
       </c>
       <c r="M93" t="n">
         <v>188.050260925293</v>
@@ -4126,16 +4126,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.001411156771700339</v>
+        <v>0.001411236895771717</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1819557756301062</v>
+        <v>0.1819557756301053</v>
       </c>
       <c r="K94" t="n">
         <v>28834140</v>
       </c>
       <c r="L94" t="n">
-        <v>195.5464820861816</v>
+        <v>195.5464797973633</v>
       </c>
       <c r="M94" t="n">
         <v>188.5319287109375</v>
@@ -4170,13 +4170,13 @@
         <v>-0.03267237641993448</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1433384716170039</v>
+        <v>0.143338471617003</v>
       </c>
       <c r="K95" t="n">
         <v>30056650</v>
       </c>
       <c r="L95" t="n">
-        <v>195.1173797607422</v>
+        <v>195.1173774719238</v>
       </c>
       <c r="M95" t="n">
         <v>188.9459509277344</v>
@@ -4211,13 +4211,13 @@
         <v>0.006096983803544509</v>
       </c>
       <c r="J96" t="n">
-        <v>0.150309387760422</v>
+        <v>0.1503093877604211</v>
       </c>
       <c r="K96" t="n">
         <v>29878670</v>
       </c>
       <c r="L96" t="n">
-        <v>194.8397857666016</v>
+        <v>194.8397827148438</v>
       </c>
       <c r="M96" t="n">
         <v>189.324953918457</v>
@@ -4252,13 +4252,13 @@
         <v>-0.006167171806482741</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1432152321354936</v>
+        <v>0.1432152321354927</v>
       </c>
       <c r="K97" t="n">
         <v>29849460</v>
       </c>
       <c r="L97" t="n">
-        <v>194.5562103271484</v>
+        <v>194.5562080383301</v>
       </c>
       <c r="M97" t="n">
         <v>189.6517608642578</v>
@@ -4293,13 +4293,13 @@
         <v>-0.00922733282310384</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1326664047001376</v>
+        <v>0.1326664047001367</v>
       </c>
       <c r="K98" t="n">
         <v>30094345</v>
       </c>
       <c r="L98" t="n">
-        <v>194.2546936035156</v>
+        <v>194.2546913146973</v>
       </c>
       <c r="M98" t="n">
         <v>189.9422882080078</v>
@@ -4334,13 +4334,13 @@
         <v>0.01377918322569305</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1482736226240877</v>
+        <v>0.1482736226240868</v>
       </c>
       <c r="K99" t="n">
         <v>30075670</v>
       </c>
       <c r="L99" t="n">
-        <v>193.7857223510742</v>
+        <v>193.7857200622558</v>
       </c>
       <c r="M99" t="n">
         <v>190.2888265991211</v>
@@ -4351,16 +4351,16 @@
         <v>45702</v>
       </c>
       <c r="B100" t="n">
-        <v>184.4586365233707</v>
+        <v>184.4586212785857</v>
       </c>
       <c r="C100" t="n">
-        <v>185.7942784810842</v>
+        <v>185.7942631259136</v>
       </c>
       <c r="D100" t="n">
-        <v>183.7210509215434</v>
+        <v>183.7210357377169</v>
       </c>
       <c r="E100" t="n">
-        <v>184.6280822753906</v>
+        <v>184.6280670166016</v>
       </c>
       <c r="F100" t="n">
         <v>20448400</v>
@@ -4372,19 +4372,19 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.004888714572280906</v>
+        <v>-0.004888796814337515</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1426600406321996</v>
+        <v>0.1426599461958145</v>
       </c>
       <c r="K100" t="n">
         <v>30207320</v>
       </c>
       <c r="L100" t="n">
-        <v>193.4029708862305</v>
+        <v>193.4029670715332</v>
       </c>
       <c r="M100" t="n">
-        <v>190.5666473388672</v>
+        <v>190.5666470336914</v>
       </c>
     </row>
     <row r="101">
@@ -4413,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.007882040227818909</v>
+        <v>-0.007881958233142194</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1336535482252155</v>
+        <v>0.1336535482252146</v>
       </c>
       <c r="K101" t="n">
         <v>30316400</v>
       </c>
       <c r="L101" t="n">
-        <v>192.7934585571289</v>
+        <v>192.7934555053711</v>
       </c>
       <c r="M101" t="n">
         <v>190.8183502197266</v>
@@ -4457,16 +4457,16 @@
         <v>0.008162330275985896</v>
       </c>
       <c r="J102" t="n">
-        <v>0.142906802904373</v>
+        <v>0.1429068029043721</v>
       </c>
       <c r="K102" t="n">
         <v>29795305</v>
       </c>
       <c r="L102" t="n">
-        <v>192.1565353393555</v>
+        <v>192.1565322875977</v>
       </c>
       <c r="M102" t="n">
-        <v>191.0396215820313</v>
+        <v>191.0396212768555</v>
       </c>
     </row>
     <row r="103">
@@ -4498,16 +4498,16 @@
         <v>-0.003832298042726889</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1385268434005833</v>
+        <v>0.1385268434005824</v>
       </c>
       <c r="K103" t="n">
         <v>29507350</v>
       </c>
       <c r="L103" t="n">
-        <v>191.4682792663574</v>
+        <v>191.4682762145996</v>
       </c>
       <c r="M103" t="n">
-        <v>191.2811865234375</v>
+        <v>191.2811862182617</v>
       </c>
     </row>
     <row r="104">
@@ -4515,16 +4515,16 @@
         <v>45709</v>
       </c>
       <c r="B104" t="n">
-        <v>184.5483215731153</v>
+        <v>184.5483372981773</v>
       </c>
       <c r="C104" t="n">
-        <v>184.7377065734514</v>
+        <v>184.7377223146507</v>
       </c>
       <c r="D104" t="n">
-        <v>178.4980548457857</v>
+        <v>178.4980700553144</v>
       </c>
       <c r="E104" t="n">
-        <v>179.076171875</v>
+        <v>179.0761871337891</v>
       </c>
       <c r="F104" t="n">
         <v>35199200</v>
@@ -4536,16 +4536,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.02654964296257334</v>
+        <v>-0.02654956001645314</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1082993622049921</v>
+        <v>0.1082994566413757</v>
       </c>
       <c r="K104" t="n">
         <v>29919740</v>
       </c>
       <c r="L104" t="n">
-        <v>190.5552551269531</v>
+        <v>190.5552528381348</v>
       </c>
       <c r="M104" t="n">
         <v>191.3838516235352</v>
@@ -4556,16 +4556,16 @@
         <v>45712</v>
       </c>
       <c r="B105" t="n">
-        <v>181.3986125849473</v>
+        <v>181.3986280769814</v>
       </c>
       <c r="C105" t="n">
-        <v>182.5249302059495</v>
+        <v>182.5249457941748</v>
       </c>
       <c r="D105" t="n">
-        <v>178.3086802303723</v>
+        <v>178.3086954585161</v>
       </c>
       <c r="E105" t="n">
-        <v>178.6675109863281</v>
+        <v>178.6675262451172</v>
       </c>
       <c r="F105" t="n">
         <v>29854200</v>
@@ -4577,16 +4577,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.002282050617862907</v>
+        <v>-0.002282050423413118</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1057701669606952</v>
+        <v>0.1057702613970788</v>
       </c>
       <c r="K105" t="n">
         <v>30218575</v>
       </c>
       <c r="L105" t="n">
-        <v>189.5106605529785</v>
+        <v>189.5106590270996</v>
       </c>
       <c r="M105" t="n">
         <v>191.4611996459961</v>
@@ -4597,16 +4597,16 @@
         <v>45713</v>
       </c>
       <c r="B106" t="n">
-        <v>177.4614261258293</v>
+        <v>177.4614416125168</v>
       </c>
       <c r="C106" t="n">
-        <v>178.1591635401731</v>
+        <v>178.1591790877507</v>
       </c>
       <c r="D106" t="n">
-        <v>174.1223215693703</v>
+        <v>174.1223367646612</v>
       </c>
       <c r="E106" t="n">
-        <v>174.8499450683594</v>
+        <v>174.8499603271484</v>
       </c>
       <c r="F106" t="n">
         <v>41913400</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.02136687244868418</v>
+        <v>-0.02136687062388365</v>
       </c>
       <c r="J106" t="n">
-        <v>0.08214331684568577</v>
+        <v>0.08214341128206937</v>
       </c>
       <c r="K106" t="n">
         <v>30227800</v>
@@ -4630,7 +4630,7 @@
         <v>188.693822479248</v>
       </c>
       <c r="M106" t="n">
-        <v>191.266833190918</v>
+        <v>191.2668334960937</v>
       </c>
     </row>
     <row r="107">
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.01533462966902943</v>
+        <v>-0.01533471559870969</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06554904983304199</v>
+        <v>0.06554904983304133</v>
       </c>
       <c r="K107" t="n">
         <v>30791470</v>
@@ -4671,7 +4671,7 @@
         <v>187.5689888000488</v>
       </c>
       <c r="M107" t="n">
-        <v>190.8149063110351</v>
+        <v>190.8149066162109</v>
       </c>
     </row>
     <row r="108">
@@ -4703,7 +4703,7 @@
         <v>-0.02448905000484347</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03945476586906715</v>
+        <v>0.03945476586906649</v>
       </c>
       <c r="K108" t="n">
         <v>31880105</v>
@@ -4712,7 +4712,7 @@
         <v>186.2278610229492</v>
       </c>
       <c r="M108" t="n">
-        <v>190.3472308349609</v>
+        <v>190.3472314453125</v>
       </c>
     </row>
     <row r="109">
@@ -4744,7 +4744,7 @@
         <v>0.01056379839212229</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05043535645343855</v>
+        <v>0.05043535645343789</v>
       </c>
       <c r="K109" t="n">
         <v>33068900</v>
@@ -4753,7 +4753,7 @@
         <v>184.7033309936523</v>
       </c>
       <c r="M109" t="n">
-        <v>189.9577008056641</v>
+        <v>189.9577011108398</v>
       </c>
     </row>
     <row r="110">
@@ -4785,16 +4785,16 @@
         <v>-0.01920372597612596</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03026308371247244</v>
+        <v>0.03026308371247177</v>
       </c>
       <c r="K110" t="n">
         <v>33507370</v>
       </c>
       <c r="L110" t="n">
-        <v>182.8588432312012</v>
+        <v>182.8588439941406</v>
       </c>
       <c r="M110" t="n">
-        <v>189.3666275024414</v>
+        <v>189.3666278076172</v>
       </c>
     </row>
     <row r="111">
@@ -4802,16 +4802,16 @@
         <v>45720</v>
       </c>
       <c r="B111" t="n">
-        <v>165.6997936288259</v>
+        <v>165.6997787878407</v>
       </c>
       <c r="C111" t="n">
-        <v>172.7268718517553</v>
+        <v>172.7268563813862</v>
       </c>
       <c r="D111" t="n">
-        <v>165.2612210149662</v>
+        <v>165.2612062132619</v>
       </c>
       <c r="E111" t="n">
-        <v>170.3645782470703</v>
+        <v>170.3645629882812</v>
       </c>
       <c r="F111" t="n">
         <v>45388000</v>
@@ -4823,16 +4823,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02341185959263958</v>
+        <v>0.02341176793024191</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05438345837182879</v>
+        <v>0.05438336393544363</v>
       </c>
       <c r="K111" t="n">
         <v>34384855</v>
       </c>
       <c r="L111" t="n">
-        <v>181.3482681274414</v>
+        <v>181.3482688903809</v>
       </c>
       <c r="M111" t="n">
         <v>188.878219909668</v>
@@ -4864,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01228650607034676</v>
+        <v>0.01228659673630439</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06733814713358743</v>
+        <v>0.06733814713358655</v>
       </c>
       <c r="K112" t="n">
         <v>33739780</v>
@@ -4908,16 +4908,16 @@
         <v>-0.003872346178511177</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06320504433835539</v>
+        <v>0.0632050443383545</v>
       </c>
       <c r="K113" t="n">
         <v>31636185</v>
       </c>
       <c r="L113" t="n">
-        <v>178.7397727966309</v>
+        <v>178.7397735595703</v>
       </c>
       <c r="M113" t="n">
-        <v>188.2494705200195</v>
+        <v>188.2494708251953</v>
       </c>
     </row>
     <row r="114">
@@ -4925,16 +4925,16 @@
         <v>45723</v>
       </c>
       <c r="B114" t="n">
-        <v>170.7034715099899</v>
+        <v>170.7034564793899</v>
       </c>
       <c r="C114" t="n">
-        <v>174.4014222614553</v>
+        <v>174.4014069052472</v>
       </c>
       <c r="D114" t="n">
-        <v>169.7166983277564</v>
+        <v>169.7166833840427</v>
       </c>
       <c r="E114" t="n">
-        <v>173.2950286865234</v>
+        <v>173.2950134277344</v>
       </c>
       <c r="F114" t="n">
         <v>27385800</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.008761171410639479</v>
+        <v>0.008761082588276459</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07251996597646038</v>
+        <v>0.072519871540075</v>
       </c>
       <c r="K114" t="n">
         <v>31540605</v>
@@ -4958,7 +4958,7 @@
         <v>177.8556549072266</v>
       </c>
       <c r="M114" t="n">
-        <v>187.8996112060547</v>
+        <v>187.8996109008789</v>
       </c>
     </row>
     <row r="115">
@@ -4987,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.04485781227065488</v>
+        <v>-0.04485772816948608</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02440906668615916</v>
+        <v>0.02440906668615828</v>
       </c>
       <c r="K115" t="n">
         <v>31255055</v>
@@ -4999,7 +4999,7 @@
         <v>176.8948394775391</v>
       </c>
       <c r="M115" t="n">
-        <v>187.3300881958008</v>
+        <v>187.330087890625</v>
       </c>
     </row>
     <row r="116">
@@ -5031,7 +5031,7 @@
         <v>-0.01103275283679994</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01310701464963393</v>
+        <v>0.01310701464963304</v>
       </c>
       <c r="K116" t="n">
         <v>32079145</v>
@@ -5040,7 +5040,7 @@
         <v>175.7863990783691</v>
       </c>
       <c r="M116" t="n">
-        <v>186.6945385742187</v>
+        <v>186.694538269043</v>
       </c>
     </row>
     <row r="117">
@@ -5048,16 +5048,16 @@
         <v>45728</v>
       </c>
       <c r="B117" t="n">
-        <v>166.2299041704089</v>
+        <v>166.2299193808039</v>
       </c>
       <c r="C117" t="n">
-        <v>167.2876739545911</v>
+        <v>167.2876892617743</v>
       </c>
       <c r="D117" t="n">
-        <v>163.1863112454469</v>
+        <v>163.1863261773465</v>
       </c>
       <c r="E117" t="n">
-        <v>166.7587890625</v>
+        <v>166.7588043212891</v>
       </c>
       <c r="F117" t="n">
         <v>28372400</v>
@@ -5069,16 +5069,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0187149786850791</v>
+        <v>0.01871507189969801</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03206729083450588</v>
+        <v>0.03206738527088926</v>
       </c>
       <c r="K117" t="n">
         <v>32435790</v>
       </c>
       <c r="L117" t="n">
-        <v>174.8884490966797</v>
+        <v>174.8884498596191</v>
       </c>
       <c r="M117" t="n">
         <v>186.1304266357422</v>
@@ -5089,16 +5089,16 @@
         <v>45729</v>
       </c>
       <c r="B118" t="n">
-        <v>165.6910437689048</v>
+        <v>165.6910282026151</v>
       </c>
       <c r="C118" t="n">
-        <v>165.7808661972848</v>
+        <v>165.7808506225565</v>
       </c>
       <c r="D118" t="n">
-        <v>161.769310362591</v>
+        <v>161.769295164739</v>
       </c>
       <c r="E118" t="n">
-        <v>162.4179382324219</v>
+        <v>162.4179229736328</v>
       </c>
       <c r="F118" t="n">
         <v>31756200</v>
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.02603071690842762</v>
+        <v>-0.0260308975308603</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005201839356345106</v>
+        <v>0.005201744919959728</v>
       </c>
       <c r="K118" t="n">
         <v>32919970</v>
@@ -5122,7 +5122,7 @@
         <v>173.8586791992188</v>
       </c>
       <c r="M118" t="n">
-        <v>185.5361135864258</v>
+        <v>185.53611328125</v>
       </c>
     </row>
     <row r="119">
@@ -5151,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01677313757642418</v>
+        <v>0.01677323309991396</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02206222809994363</v>
+        <v>0.02206222809994252</v>
       </c>
       <c r="K119" t="n">
         <v>33449640</v>
@@ -5163,7 +5163,7 @@
         <v>172.8390335083008</v>
       </c>
       <c r="M119" t="n">
-        <v>185.0265863037109</v>
+        <v>185.0265859985352</v>
       </c>
     </row>
     <row r="120">
@@ -5171,16 +5171,16 @@
         <v>45733</v>
       </c>
       <c r="B120" t="n">
-        <v>164.6831523591798</v>
+        <v>164.6831676866985</v>
       </c>
       <c r="C120" t="n">
-        <v>165.950487441562</v>
+        <v>165.950502887035</v>
       </c>
       <c r="D120" t="n">
-        <v>163.3260100857763</v>
+        <v>163.326025286982</v>
       </c>
       <c r="E120" t="n">
-        <v>163.9447021484375</v>
+        <v>163.9447174072266</v>
       </c>
       <c r="F120" t="n">
         <v>31184300</v>
@@ -5192,16 +5192,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.007251293316242191</v>
+        <v>-0.007251200918361067</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0146509550965388</v>
+        <v>0.01465104953292196</v>
       </c>
       <c r="K120" t="n">
         <v>33986435</v>
       </c>
       <c r="L120" t="n">
-        <v>171.8048645019531</v>
+        <v>171.804866027832</v>
       </c>
       <c r="M120" t="n">
         <v>184.5317831420898</v>
@@ -5212,16 +5212,16 @@
         <v>45734</v>
       </c>
       <c r="B121" t="n">
-        <v>163.3359896270705</v>
+        <v>163.336005171718</v>
       </c>
       <c r="C121" t="n">
-        <v>163.9047989780116</v>
+        <v>163.9048145767925</v>
       </c>
       <c r="D121" t="n">
-        <v>156.3906258503079</v>
+        <v>156.3906407339668</v>
       </c>
       <c r="E121" t="n">
-        <v>160.3323211669922</v>
+        <v>160.3323364257812</v>
       </c>
       <c r="F121" t="n">
         <v>42074800</v>
@@ -5233,16 +5233,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.02203414281831817</v>
+        <v>-0.02203414076753951</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.007706008958801247</v>
+        <v>-0.0077059145224182</v>
       </c>
       <c r="K121" t="n">
         <v>34594340</v>
       </c>
       <c r="L121" t="n">
-        <v>170.6628387451172</v>
+        <v>170.6628410339355</v>
       </c>
       <c r="M121" t="n">
         <v>183.9621411132813</v>
@@ -5274,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.02004113427511434</v>
+        <v>0.02004103719805017</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01218068815604445</v>
+        <v>0.01218068815604312</v>
       </c>
       <c r="K122" t="n">
         <v>35330650</v>
       </c>
       <c r="L122" t="n">
-        <v>169.6067192077637</v>
+        <v>169.606721496582</v>
       </c>
       <c r="M122" t="n">
         <v>183.4097174072266</v>
@@ -5318,13 +5318,13 @@
         <v>-0.006650791995090222</v>
       </c>
       <c r="J123" t="n">
-        <v>0.005448884937671261</v>
+        <v>0.005448884937669929</v>
       </c>
       <c r="K123" t="n">
         <v>35715500</v>
       </c>
       <c r="L123" t="n">
-        <v>168.5315994262695</v>
+        <v>168.5316017150879</v>
       </c>
       <c r="M123" t="n">
         <v>182.7342694091797</v>
@@ -5359,16 +5359,16 @@
         <v>0.007309588067367923</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01279830210936006</v>
+        <v>0.01279830210935873</v>
       </c>
       <c r="K124" t="n">
         <v>35786830</v>
       </c>
       <c r="L124" t="n">
-        <v>167.76005859375</v>
+        <v>167.7600601196289</v>
       </c>
       <c r="M124" t="n">
-        <v>182.1100817871094</v>
+        <v>182.1100814819336</v>
       </c>
     </row>
     <row r="125">
@@ -5400,16 +5400,16 @@
         <v>0.02250131519296361</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0355875959320211</v>
+        <v>0.03558759593201977</v>
       </c>
       <c r="K125" t="n">
         <v>35838075</v>
       </c>
       <c r="L125" t="n">
-        <v>167.1930625915527</v>
+        <v>167.1930633544922</v>
       </c>
       <c r="M125" t="n">
-        <v>181.590238647461</v>
+        <v>181.5902383422851</v>
       </c>
     </row>
     <row r="126">
@@ -5417,16 +5417,16 @@
         <v>45741</v>
       </c>
       <c r="B126" t="n">
-        <v>168.6248568847566</v>
+        <v>168.6248720021941</v>
       </c>
       <c r="C126" t="n">
-        <v>170.2713982784203</v>
+        <v>170.2714135434724</v>
       </c>
       <c r="D126" t="n">
-        <v>167.9662555540113</v>
+        <v>167.9662706124043</v>
       </c>
       <c r="E126" t="n">
-        <v>170.2015380859375</v>
+        <v>170.2015533447266</v>
       </c>
       <c r="F126" t="n">
         <v>24174400</v>
@@ -5438,19 +5438,19 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.01717557234505507</v>
+        <v>0.01717566353616706</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05337440560559314</v>
+        <v>0.0533745000419763</v>
       </c>
       <c r="K126" t="n">
         <v>34951125</v>
       </c>
       <c r="L126" t="n">
-        <v>166.9606422424316</v>
+        <v>166.9606430053711</v>
       </c>
       <c r="M126" t="n">
-        <v>181.1659509277344</v>
+        <v>181.1659506225586</v>
       </c>
     </row>
     <row r="127">
@@ -5458,16 +5458,16 @@
         <v>45742</v>
       </c>
       <c r="B127" t="n">
-        <v>168.6448106804499</v>
+        <v>168.6448263034682</v>
       </c>
       <c r="C127" t="n">
-        <v>169.2535292452292</v>
+        <v>169.2535449246383</v>
       </c>
       <c r="D127" t="n">
-        <v>164.4935501477493</v>
+        <v>164.4935653862005</v>
       </c>
       <c r="E127" t="n">
-        <v>164.7130889892578</v>
+        <v>164.7131042480469</v>
       </c>
       <c r="F127" t="n">
         <v>28901600</v>
@@ -5479,19 +5479,19 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.03224676556041739</v>
+        <v>-0.03224676266945325</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01940648810068546</v>
+        <v>0.01940658253706862</v>
       </c>
       <c r="K127" t="n">
         <v>34624640</v>
       </c>
       <c r="L127" t="n">
-        <v>166.5878623962402</v>
+        <v>166.5878639221191</v>
       </c>
       <c r="M127" t="n">
-        <v>180.6524267578125</v>
+        <v>180.6524270629883</v>
       </c>
     </row>
     <row r="128">
@@ -5520,19 +5520,19 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.01708459487799363</v>
+        <v>-0.01708468593388679</v>
       </c>
       <c r="J128" t="n">
-        <v>0.001990341235486914</v>
+        <v>0.001990341235486026</v>
       </c>
       <c r="K128" t="n">
         <v>33850505</v>
       </c>
       <c r="L128" t="n">
-        <v>166.2851921081543</v>
+        <v>166.2851936340332</v>
       </c>
       <c r="M128" t="n">
-        <v>180.109533996582</v>
+        <v>180.1095343017578</v>
       </c>
     </row>
     <row r="129">
@@ -5540,16 +5540,16 @@
         <v>45744</v>
       </c>
       <c r="B129" t="n">
-        <v>160.1527187736927</v>
+        <v>160.1527029058568</v>
       </c>
       <c r="C129" t="n">
-        <v>161.4799254652425</v>
+        <v>161.4799094659078</v>
       </c>
       <c r="D129" t="n">
-        <v>153.3071351801162</v>
+        <v>153.3071199905367</v>
       </c>
       <c r="E129" t="n">
-        <v>154.0056610107422</v>
+        <v>154.0056457519531</v>
       </c>
       <c r="F129" t="n">
         <v>48669300</v>
@@ -5561,16 +5561,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.04875490270461058</v>
+        <v>-0.04875499695340768</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.04686160036240883</v>
+        <v>-0.04686169479879398</v>
       </c>
       <c r="K129" t="n">
         <v>33877440</v>
       </c>
       <c r="L129" t="n">
-        <v>165.4991424560547</v>
+        <v>165.4991432189941</v>
       </c>
       <c r="M129" t="n">
         <v>179.2913565063477</v>
@@ -5602,19 +5602,19 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.002008636751622328</v>
+        <v>0.002008736030050473</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.04494709154351428</v>
+        <v>-0.04494709154351506</v>
       </c>
       <c r="K130" t="n">
         <v>34569090</v>
       </c>
       <c r="L130" t="n">
-        <v>164.891529083252</v>
+        <v>164.8915298461914</v>
       </c>
       <c r="M130" t="n">
-        <v>178.5319943237305</v>
+        <v>178.5319940185547</v>
       </c>
     </row>
     <row r="131">
@@ -5622,16 +5622,16 @@
         <v>45748</v>
       </c>
       <c r="B131" t="n">
-        <v>153.2971372468347</v>
+        <v>153.2971521704674</v>
       </c>
       <c r="C131" t="n">
-        <v>157.7677327478603</v>
+        <v>157.7677481067101</v>
       </c>
       <c r="D131" t="n">
-        <v>153.2971372468347</v>
+        <v>153.2971521704674</v>
       </c>
       <c r="E131" t="n">
-        <v>156.7398986816406</v>
+        <v>156.7399139404297</v>
       </c>
       <c r="F131" t="n">
         <v>30672900</v>
@@ -5643,19 +5643,19 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.01571393708887836</v>
+        <v>0.01571403596966658</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.02993945022347877</v>
+        <v>-0.02993935578709517</v>
       </c>
       <c r="K131" t="n">
         <v>33833335</v>
       </c>
       <c r="L131" t="n">
-        <v>164.2102951049805</v>
+        <v>164.2102973937988</v>
       </c>
       <c r="M131" t="n">
-        <v>177.7595306396484</v>
+        <v>177.7595309448242</v>
       </c>
     </row>
     <row r="132">
@@ -5684,19 +5684,19 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.0001911000529005724</v>
+        <v>-0.0001911973853075954</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.03012482884585788</v>
+        <v>-0.03012482884585843</v>
       </c>
       <c r="K132" t="n">
         <v>33537675</v>
       </c>
       <c r="L132" t="n">
-        <v>163.4229042053223</v>
+        <v>163.4229064941406</v>
       </c>
       <c r="M132" t="n">
-        <v>176.9456011962891</v>
+        <v>176.9456015014648</v>
       </c>
     </row>
     <row r="133">
@@ -5704,16 +5704,16 @@
         <v>45750</v>
       </c>
       <c r="B133" t="n">
-        <v>150.7924237750124</v>
+        <v>150.7924084767401</v>
       </c>
       <c r="C133" t="n">
-        <v>152.4589122309581</v>
+        <v>152.4588967636163</v>
       </c>
       <c r="D133" t="n">
-        <v>150.0739357282103</v>
+        <v>150.0739205028304</v>
       </c>
       <c r="E133" t="n">
-        <v>150.4032440185547</v>
+        <v>150.4032287597656</v>
       </c>
       <c r="F133" t="n">
         <v>46883400</v>
@@ -5725,16 +5725,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.04024442502894066</v>
+        <v>-0.04024452239856835</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.06915689745880171</v>
+        <v>-0.06915699189518665</v>
       </c>
       <c r="K133" t="n">
         <v>34466745</v>
       </c>
       <c r="L133" t="n">
-        <v>162.3535690307617</v>
+        <v>162.3535705566406</v>
       </c>
       <c r="M133" t="n">
         <v>175.9991586303711</v>
@@ -5766,16 +5766,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.03397026243840939</v>
+        <v>-0.03397016443224221</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.1007778819411095</v>
+        <v>-0.1007778819411101</v>
       </c>
       <c r="K134" t="n">
         <v>36210430</v>
       </c>
       <c r="L134" t="n">
-        <v>160.9535179138184</v>
+        <v>160.9535202026367</v>
       </c>
       <c r="M134" t="n">
         <v>174.9583056640625</v>
@@ -5786,16 +5786,16 @@
         <v>45754</v>
       </c>
       <c r="B135" t="n">
-        <v>141.2525060326353</v>
+        <v>141.2525207507384</v>
       </c>
       <c r="C135" t="n">
-        <v>152.5287597579961</v>
+        <v>152.5287756510523</v>
       </c>
       <c r="D135" t="n">
-        <v>140.2346455130815</v>
+        <v>140.2346601251265</v>
       </c>
       <c r="E135" t="n">
-        <v>146.4415740966797</v>
+        <v>146.4415893554688</v>
       </c>
       <c r="F135" t="n">
         <v>76794100</v>
@@ -5807,19 +5807,19 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.007898245618457089</v>
+        <v>0.00789835063854305</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.09367560478713111</v>
+        <v>-0.09367551035074773</v>
       </c>
       <c r="K135" t="n">
         <v>37869935</v>
       </c>
       <c r="L135" t="n">
-        <v>159.9995269775391</v>
+        <v>159.9995300292969</v>
       </c>
       <c r="M135" t="n">
-        <v>173.8959490966797</v>
+        <v>173.8959494018555</v>
       </c>
     </row>
     <row r="136">
@@ -5848,19 +5848,19 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.01396928998525093</v>
+        <v>-0.01396939272679232</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.1063363130845668</v>
+        <v>-0.1063363130845677</v>
       </c>
       <c r="K136" t="n">
         <v>38500575</v>
       </c>
       <c r="L136" t="n">
-        <v>159.0345596313477</v>
+        <v>159.0345626831055</v>
       </c>
       <c r="M136" t="n">
-        <v>172.9601327514648</v>
+        <v>172.9601333618164</v>
       </c>
     </row>
     <row r="137">
@@ -5868,16 +5868,16 @@
         <v>45756</v>
       </c>
       <c r="B137" t="n">
-        <v>144.1164740185575</v>
+        <v>144.1164879034683</v>
       </c>
       <c r="C137" t="n">
-        <v>159.2146805220898</v>
+        <v>159.2146958616382</v>
       </c>
       <c r="D137" t="n">
-        <v>143.6075513553121</v>
+        <v>143.6075651911907</v>
       </c>
       <c r="E137" t="n">
-        <v>158.3764495849609</v>
+        <v>158.37646484375</v>
       </c>
       <c r="F137" t="n">
         <v>70406200</v>
@@ -5889,19 +5889,19 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.09682104090518062</v>
+        <v>0.09682114657847318</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.01981086469825311</v>
+        <v>-0.01981077026186984</v>
       </c>
       <c r="K137" t="n">
         <v>40602265</v>
       </c>
       <c r="L137" t="n">
-        <v>158.6154426574707</v>
+        <v>158.6154457092285</v>
       </c>
       <c r="M137" t="n">
-        <v>172.2343545532227</v>
+        <v>172.23435546875</v>
       </c>
     </row>
     <row r="138">
@@ -5930,19 +5930,19 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.0371117330077898</v>
+        <v>-0.03711182577731187</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.05618738218470787</v>
+        <v>-0.05618738218470887</v>
       </c>
       <c r="K138" t="n">
         <v>41415555</v>
       </c>
       <c r="L138" t="n">
-        <v>158.1194869995117</v>
+        <v>158.119490814209</v>
       </c>
       <c r="M138" t="n">
-        <v>171.3888311767578</v>
+        <v>171.3888320922852</v>
       </c>
     </row>
     <row r="139">
@@ -5950,16 +5950,16 @@
         <v>45758</v>
       </c>
       <c r="B139" t="n">
-        <v>152.5786587351614</v>
+        <v>152.5786438880902</v>
       </c>
       <c r="C139" t="n">
-        <v>157.3386383499795</v>
+        <v>157.3386230397259</v>
       </c>
       <c r="D139" t="n">
-        <v>152.4988402629555</v>
+        <v>152.4988254236513</v>
       </c>
       <c r="E139" t="n">
-        <v>156.8097534179688</v>
+        <v>156.8097381591797</v>
       </c>
       <c r="F139" t="n">
         <v>33636200</v>
@@ -5971,19 +5971,19 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.02826860038204293</v>
+        <v>0.02826850032363892</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.02950712045615755</v>
+        <v>-0.02950721489254282</v>
       </c>
       <c r="K139" t="n">
         <v>41497570</v>
       </c>
       <c r="L139" t="n">
-        <v>157.7028648376465</v>
+        <v>157.7028678894043</v>
       </c>
       <c r="M139" t="n">
-        <v>170.5206811523437</v>
+        <v>170.5206817626953</v>
       </c>
     </row>
     <row r="140">
@@ -5991,16 +5991,16 @@
         <v>45761</v>
       </c>
       <c r="B140" t="n">
-        <v>159.6637406986332</v>
+        <v>159.6637253506346</v>
       </c>
       <c r="C140" t="n">
-        <v>161.3801271292812</v>
+        <v>161.3801116162915</v>
       </c>
       <c r="D140" t="n">
-        <v>157.2288662167037</v>
+        <v>157.2288511027623</v>
       </c>
       <c r="E140" t="n">
-        <v>158.7357025146484</v>
+        <v>158.7356872558594</v>
       </c>
       <c r="F140" t="n">
         <v>30333000</v>
@@ -6012,19 +6012,19 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0.01228207464586828</v>
+        <v>0.01228207584100827</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.01758745446631638</v>
+        <v>-0.01758754890270164</v>
       </c>
       <c r="K140" t="n">
         <v>41455005</v>
       </c>
       <c r="L140" t="n">
-        <v>157.442414855957</v>
+        <v>157.4424163818359</v>
       </c>
       <c r="M140" t="n">
-        <v>169.628254699707</v>
+        <v>169.6282553100586</v>
       </c>
     </row>
     <row r="141">
@@ -6053,19 +6053,19 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.01735092598671739</v>
+        <v>-0.01735083152758721</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.034633221832294</v>
+        <v>-0.03463322183229489</v>
       </c>
       <c r="K141" t="n">
         <v>40728840</v>
       </c>
       <c r="L141" t="n">
-        <v>157.2248733520508</v>
+        <v>157.2248741149902</v>
       </c>
       <c r="M141" t="n">
-        <v>168.7363629150391</v>
+        <v>168.7363638305664</v>
       </c>
     </row>
     <row r="142">
@@ -6073,16 +6073,16 @@
         <v>45763</v>
       </c>
       <c r="B142" t="n">
-        <v>152.7782391143773</v>
+        <v>152.7782543502781</v>
       </c>
       <c r="C142" t="n">
-        <v>155.5623687316426</v>
+        <v>155.5623842451924</v>
       </c>
       <c r="D142" t="n">
-        <v>151.1915692108639</v>
+        <v>151.1915842885331</v>
       </c>
       <c r="E142" t="n">
-        <v>153.0077514648438</v>
+        <v>153.0077667236328</v>
       </c>
       <c r="F142" t="n">
         <v>28187400</v>
@@ -6094,19 +6094,19 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.01906469545370104</v>
+        <v>-0.01906459762934409</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.05303764545918188</v>
+        <v>-0.0530375510227985</v>
       </c>
       <c r="K142" t="n">
         <v>40424430</v>
       </c>
       <c r="L142" t="n">
-        <v>156.6979827880859</v>
+        <v>156.6979843139648</v>
       </c>
       <c r="M142" t="n">
-        <v>167.6823309326172</v>
+        <v>167.6823318481445</v>
       </c>
     </row>
     <row r="143">
@@ -6135,19 +6135,19 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.01415245809630217</v>
+        <v>-0.01415255641052515</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.0664394905005965</v>
+        <v>-0.06643949050059739</v>
       </c>
       <c r="K143" t="n">
         <v>40669835</v>
       </c>
       <c r="L143" t="n">
-        <v>156.1172058105469</v>
+        <v>156.1172073364258</v>
       </c>
       <c r="M143" t="n">
-        <v>166.8850119018555</v>
+        <v>166.8850131225586</v>
       </c>
     </row>
     <row r="144">
@@ -6179,16 +6179,16 @@
         <v>-0.02308812351539136</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.08799365085301036</v>
+        <v>-0.08799365085301125</v>
       </c>
       <c r="K144" t="n">
         <v>40141000</v>
       </c>
       <c r="L144" t="n">
-        <v>155.3029205322266</v>
+        <v>155.3029220581055</v>
       </c>
       <c r="M144" t="n">
-        <v>166.0126571655273</v>
+        <v>166.0126583862305</v>
       </c>
     </row>
     <row r="145">
@@ -6196,16 +6196,16 @@
         <v>45769</v>
       </c>
       <c r="B145" t="n">
-        <v>148.5770776567221</v>
+        <v>148.5770926556068</v>
       </c>
       <c r="C145" t="n">
-        <v>151.8701451004615</v>
+        <v>151.8701604317821</v>
       </c>
       <c r="D145" t="n">
-        <v>148.2278071601437</v>
+        <v>148.2278221237696</v>
       </c>
       <c r="E145" t="n">
-        <v>151.1516571044922</v>
+        <v>151.1516723632812</v>
       </c>
       <c r="F145" t="n">
         <v>26971800</v>
@@ -6217,19 +6217,19 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.02573301073315881</v>
+        <v>0.02573311428110503</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.06452498168170184</v>
+        <v>-0.06452488724531846</v>
       </c>
       <c r="K145" t="n">
         <v>39945635</v>
       </c>
       <c r="L145" t="n">
-        <v>154.494123840332</v>
+        <v>154.4941261291504</v>
       </c>
       <c r="M145" t="n">
-        <v>165.3409362792969</v>
+        <v>165.3409378051758</v>
       </c>
     </row>
     <row r="146">
@@ -6258,19 +6258,19 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02561570785013934</v>
+        <v>0.02561560431404541</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.04056212691135652</v>
+        <v>-0.04056212691135752</v>
       </c>
       <c r="K146" t="n">
         <v>40293355</v>
       </c>
       <c r="L146" t="n">
-        <v>153.7352226257324</v>
+        <v>153.7352241516113</v>
       </c>
       <c r="M146" t="n">
-        <v>164.7241256713867</v>
+        <v>164.7241271972656</v>
       </c>
     </row>
     <row r="147">
@@ -6278,16 +6278,16 @@
         <v>45771</v>
       </c>
       <c r="B147" t="n">
-        <v>155.8218097291742</v>
+        <v>155.8218246881135</v>
       </c>
       <c r="C147" t="n">
-        <v>159.2545822353842</v>
+        <v>159.2545975238706</v>
       </c>
       <c r="D147" t="n">
-        <v>155.4625657406937</v>
+        <v>155.4625806651454</v>
       </c>
       <c r="E147" t="n">
-        <v>158.9452362060547</v>
+        <v>158.9452514648438</v>
       </c>
       <c r="F147" t="n">
         <v>45894000</v>
@@ -6299,19 +6299,19 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.02529759722336089</v>
+        <v>0.0252976956522295</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.01629065403712193</v>
+        <v>-0.01629055960073866</v>
       </c>
       <c r="K147" t="n">
         <v>41142975</v>
       </c>
       <c r="L147" t="n">
-        <v>153.4468299865723</v>
+        <v>153.4468315124512</v>
       </c>
       <c r="M147" t="n">
-        <v>164.208674621582</v>
+        <v>164.2086764526367</v>
       </c>
     </row>
     <row r="148">
@@ -6319,16 +6319,16 @@
         <v>45772</v>
       </c>
       <c r="B148" t="n">
-        <v>164.7230934882887</v>
+        <v>164.7230779364961</v>
       </c>
       <c r="C148" t="n">
-        <v>165.7509276052503</v>
+        <v>165.7509119564182</v>
       </c>
       <c r="D148" t="n">
-        <v>160.7015489938313</v>
+        <v>160.7015338217197</v>
       </c>
       <c r="E148" t="n">
-        <v>161.61962890625</v>
+        <v>161.6196136474609</v>
       </c>
       <c r="F148" t="n">
         <v>56034000</v>
@@ -6340,19 +6340,19 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01682587515066047</v>
+        <v>0.01682568153480646</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0002611166025874301</v>
+        <v>0.0002610221662020518</v>
       </c>
       <c r="K148" t="n">
         <v>42719260</v>
       </c>
       <c r="L148" t="n">
-        <v>153.4328598022461</v>
+        <v>153.4328605651855</v>
       </c>
       <c r="M148" t="n">
-        <v>163.7808004760742</v>
+        <v>163.7808020019531</v>
       </c>
     </row>
     <row r="149">
@@ -6360,16 +6360,16 @@
         <v>45775</v>
       </c>
       <c r="B149" t="n">
-        <v>162.0886280883912</v>
+        <v>162.0886126566934</v>
       </c>
       <c r="C149" t="n">
-        <v>162.8071161469278</v>
+        <v>162.8071006468261</v>
       </c>
       <c r="D149" t="n">
-        <v>158.2666906563393</v>
+        <v>158.2666755885102</v>
       </c>
       <c r="E149" t="n">
-        <v>160.2724609375</v>
+        <v>160.2724456787109</v>
       </c>
       <c r="F149" t="n">
         <v>29745800</v>
@@ -6381,19 +6381,19 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.008335422979664497</v>
+        <v>-0.008335423766626215</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.008076482894406656</v>
+        <v>-0.008076577330791923</v>
       </c>
       <c r="K149" t="n">
         <v>41773085</v>
       </c>
       <c r="L149" t="n">
-        <v>153.746199798584</v>
+        <v>153.7462005615234</v>
       </c>
       <c r="M149" t="n">
-        <v>163.2755474853516</v>
+        <v>163.2755487060547</v>
       </c>
     </row>
     <row r="150">
@@ -6422,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.002801797019235996</v>
+        <v>-0.002801702080664659</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.01085565124794319</v>
+        <v>-0.0108556512479443</v>
       </c>
       <c r="K150" t="n">
         <v>40383360</v>
       </c>
       <c r="L150" t="n">
-        <v>154.0216201782227</v>
+        <v>154.0216209411621</v>
       </c>
       <c r="M150" t="n">
-        <v>162.7794540405274</v>
+        <v>162.7794555664063</v>
       </c>
     </row>
     <row r="151">
@@ -6466,7 +6466,7 @@
         <v>-0.008491542112051276</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.01925501214026881</v>
+        <v>-0.01925501214026992</v>
       </c>
       <c r="K151" t="n">
         <v>40598770</v>
@@ -6475,7 +6475,7 @@
         <v>154.1079383850098</v>
       </c>
       <c r="M151" t="n">
-        <v>162.2853225708008</v>
+        <v>162.2853240966797</v>
       </c>
     </row>
     <row r="152">
@@ -6483,16 +6483,16 @@
         <v>45778</v>
       </c>
       <c r="B152" t="n">
-        <v>160.1127788910503</v>
+        <v>160.1127940694298</v>
       </c>
       <c r="C152" t="n">
-        <v>161.6096263382587</v>
+        <v>161.6096416585364</v>
       </c>
       <c r="D152" t="n">
-        <v>158.5760222116729</v>
+        <v>158.5760372443709</v>
       </c>
       <c r="E152" t="n">
-        <v>160.9609985351562</v>
+        <v>160.9610137939453</v>
       </c>
       <c r="F152" t="n">
         <v>30203200</v>
@@ -6504,19 +6504,19 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.01574300847019017</v>
+        <v>0.01574310476064844</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.003815135489296462</v>
+        <v>-0.003815041052913304</v>
       </c>
       <c r="K152" t="n">
         <v>40856845</v>
       </c>
       <c r="L152" t="n">
-        <v>154.320491027832</v>
+        <v>154.3204917907715</v>
       </c>
       <c r="M152" t="n">
-        <v>161.8111834716797</v>
+        <v>161.8111853027344</v>
       </c>
     </row>
     <row r="153">
@@ -6545,19 +6545,19 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01692505455627868</v>
+        <v>0.01692495815377404</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01304534769068622</v>
+        <v>0.01304534769068533</v>
       </c>
       <c r="K153" t="n">
         <v>39798425</v>
       </c>
       <c r="L153" t="n">
-        <v>154.9845924377441</v>
+        <v>154.984593963623</v>
       </c>
       <c r="M153" t="n">
-        <v>161.4056838989258</v>
+        <v>161.4056857299805</v>
       </c>
     </row>
     <row r="154">
@@ -6565,16 +6565,16 @@
         <v>45782</v>
       </c>
       <c r="B154" t="n">
-        <v>162.6574349494367</v>
+        <v>162.6574198030844</v>
       </c>
       <c r="C154" t="n">
-        <v>165.0424114540437</v>
+        <v>165.0423960856069</v>
       </c>
       <c r="D154" t="n">
-        <v>162.378024622876</v>
+        <v>162.3780095025418</v>
       </c>
       <c r="E154" t="n">
-        <v>163.8648986816406</v>
+        <v>163.8648834228516</v>
       </c>
       <c r="F154" t="n">
         <v>21341800</v>
@@ -6586,19 +6586,19 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.001097389291113693</v>
+        <v>0.001097296070820653</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01415705280665458</v>
+        <v>0.01415695837026942</v>
       </c>
       <c r="K154" t="n">
         <v>37752540</v>
       </c>
       <c r="L154" t="n">
-        <v>155.9131370544434</v>
+        <v>155.9131378173828</v>
       </c>
       <c r="M154" t="n">
-        <v>161.1014584350586</v>
+        <v>161.1014596557617</v>
       </c>
     </row>
     <row r="155">
@@ -6606,16 +6606,16 @@
         <v>45783</v>
       </c>
       <c r="B155" t="n">
-        <v>161.8291626299755</v>
+        <v>161.8291777896757</v>
       </c>
       <c r="C155" t="n">
-        <v>164.4536399852438</v>
+        <v>164.4536553907976</v>
       </c>
       <c r="D155" t="n">
-        <v>160.8512265767027</v>
+        <v>160.8512416447926</v>
       </c>
       <c r="E155" t="n">
-        <v>162.8869323730469</v>
+        <v>162.8869476318359</v>
       </c>
       <c r="F155" t="n">
         <v>21277200</v>
@@ -6627,19 +6627,19 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.005968125672196289</v>
+        <v>-0.005967939991706861</v>
       </c>
       <c r="J155" t="n">
-        <v>0.008104436064160225</v>
+        <v>0.008104530500543605</v>
       </c>
       <c r="K155" t="n">
         <v>34976695</v>
       </c>
       <c r="L155" t="n">
-        <v>156.7354049682617</v>
+        <v>156.7354057312012</v>
       </c>
       <c r="M155" t="n">
-        <v>160.785846862793</v>
+        <v>160.7858480834961</v>
       </c>
     </row>
     <row r="156">
@@ -6668,19 +6668,19 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.07259681958467656</v>
+        <v>-0.07259690646118644</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.06508073980330176</v>
+        <v>-0.06508073980330265</v>
       </c>
       <c r="K156" t="n">
         <v>38741190</v>
       </c>
       <c r="L156" t="n">
-        <v>157.0687034606934</v>
+        <v>157.0687042236328</v>
       </c>
       <c r="M156" t="n">
-        <v>160.310085144043</v>
+        <v>160.3100860595703</v>
       </c>
     </row>
     <row r="157">
@@ -6688,16 +6688,16 @@
         <v>45785</v>
       </c>
       <c r="B157" t="n">
-        <v>154.67425284055</v>
+        <v>154.6742375105505</v>
       </c>
       <c r="C157" t="n">
-        <v>155.6022910487671</v>
+        <v>155.6022756267883</v>
       </c>
       <c r="D157" t="n">
-        <v>152.5786600984734</v>
+        <v>152.5786449761713</v>
       </c>
       <c r="E157" t="n">
-        <v>153.9557647705078</v>
+        <v>153.9557495117188</v>
       </c>
       <c r="F157" t="n">
         <v>57498700</v>
@@ -6709,19 +6709,19 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01915709005766675</v>
+        <v>0.01915698904746366</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.04717040733906641</v>
+        <v>-0.04717050177545168</v>
       </c>
       <c r="K157" t="n">
         <v>38095815</v>
       </c>
       <c r="L157" t="n">
-        <v>156.8476692199707</v>
+        <v>156.8476684570313</v>
       </c>
       <c r="M157" t="n">
-        <v>159.9458267211914</v>
+        <v>159.945827331543</v>
       </c>
     </row>
     <row r="158">
@@ -6729,16 +6729,16 @@
         <v>45786</v>
       </c>
       <c r="B158" t="n">
-        <v>153.8459841422996</v>
+        <v>153.8459995429378</v>
       </c>
       <c r="C158" t="n">
-        <v>154.7241395477239</v>
+        <v>154.7241550362692</v>
       </c>
       <c r="D158" t="n">
-        <v>151.8801232085239</v>
+        <v>151.880138412371</v>
       </c>
       <c r="E158" t="n">
-        <v>152.4289703369141</v>
+        <v>152.4289855957031</v>
       </c>
       <c r="F158" t="n">
         <v>32435300</v>
@@ -6750,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.009917098173424344</v>
+        <v>-0.009916900933273798</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.05661971195202886</v>
+        <v>-0.05661961751564548</v>
       </c>
       <c r="K158" t="n">
         <v>37316480</v>
@@ -6762,7 +6762,7 @@
         <v>156.8441764831543</v>
       </c>
       <c r="M158" t="n">
-        <v>159.6353573608398</v>
+        <v>159.6353582763672</v>
       </c>
     </row>
     <row r="159">
@@ -6770,16 +6770,16 @@
         <v>45789</v>
       </c>
       <c r="B159" t="n">
-        <v>157.1590058326115</v>
+        <v>157.1590209979951</v>
       </c>
       <c r="C159" t="n">
-        <v>158.7656226748704</v>
+        <v>158.7656379952877</v>
       </c>
       <c r="D159" t="n">
-        <v>155.9216064819518</v>
+        <v>155.9216215279299</v>
       </c>
       <c r="E159" t="n">
-        <v>158.1269683837891</v>
+        <v>158.1269836425781</v>
       </c>
       <c r="F159" t="n">
         <v>44138800</v>
@@ -6791,19 +6791,19 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03738133265796328</v>
+        <v>0.03738132891593304</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.02135489958154246</v>
+        <v>-0.02135480514515908</v>
       </c>
       <c r="K159" t="n">
         <v>37841610</v>
       </c>
       <c r="L159" t="n">
-        <v>156.9100372314453</v>
+        <v>156.9100387573242</v>
       </c>
       <c r="M159" t="n">
-        <v>159.4033636474609</v>
+        <v>159.4033648681641</v>
       </c>
     </row>
     <row r="160">
@@ -6811,16 +6811,16 @@
         <v>45790</v>
       </c>
       <c r="B160" t="n">
-        <v>158.4562671704969</v>
+        <v>158.4562823585057</v>
       </c>
       <c r="C160" t="n">
-        <v>160.2325401846152</v>
+        <v>160.2325555428794</v>
       </c>
       <c r="D160" t="n">
-        <v>155.8318049490713</v>
+        <v>155.8318198855257</v>
       </c>
       <c r="E160" t="n">
-        <v>159.1947174072266</v>
+        <v>159.1947326660156</v>
       </c>
       <c r="F160" t="n">
         <v>42382100</v>
@@ -6832,19 +6832,19 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0.006752478937343431</v>
+        <v>0.006752478285749097</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.01474661915383246</v>
+        <v>-0.01474652471744908</v>
       </c>
       <c r="K160" t="n">
         <v>38444065</v>
       </c>
       <c r="L160" t="n">
-        <v>156.9329879760742</v>
+        <v>156.932991027832</v>
       </c>
       <c r="M160" t="n">
-        <v>159.2579125976563</v>
+        <v>159.2579141235352</v>
       </c>
     </row>
     <row r="161">
@@ -6873,19 +6873,19 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03660754807948052</v>
+        <v>0.03660744872081678</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02132109135596427</v>
+        <v>0.02132109135596338</v>
       </c>
       <c r="K161" t="n">
         <v>39504285</v>
       </c>
       <c r="L161" t="n">
-        <v>157.3850357055664</v>
+        <v>157.3850387573242</v>
       </c>
       <c r="M161" t="n">
-        <v>159.1510699462891</v>
+        <v>159.1510717773438</v>
       </c>
     </row>
     <row r="162">
@@ -6917,16 +6917,16 @@
         <v>-0.008526283757674946</v>
       </c>
       <c r="J162" t="n">
-        <v>0.012613017923365</v>
+        <v>0.01261301792336411</v>
       </c>
       <c r="K162" t="n">
         <v>39752250</v>
       </c>
       <c r="L162" t="n">
-        <v>157.9154190063477</v>
+        <v>157.915421295166</v>
       </c>
       <c r="M162" t="n">
-        <v>158.9742230224609</v>
+        <v>158.9742248535156</v>
       </c>
     </row>
     <row r="163">
@@ -6958,16 +6958,16 @@
         <v>0.01360086545366368</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02638543133676907</v>
+        <v>0.02638543133676818</v>
       </c>
       <c r="K163" t="n">
         <v>40242265</v>
       </c>
       <c r="L163" t="n">
-        <v>158.6653396606445</v>
+        <v>158.6653419494629</v>
       </c>
       <c r="M163" t="n">
-        <v>158.8552386474609</v>
+        <v>158.8552404785156</v>
       </c>
     </row>
     <row r="164">
@@ -6999,16 +6999,16 @@
         <v>0.002105987024197731</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02854698573698999</v>
+        <v>0.02854698573698911</v>
       </c>
       <c r="K164" t="n">
         <v>40461115</v>
       </c>
       <c r="L164" t="n">
-        <v>159.6068565368652</v>
+        <v>159.6068588256836</v>
       </c>
       <c r="M164" t="n">
-        <v>158.7131378173828</v>
+        <v>158.7131399536133</v>
       </c>
     </row>
     <row r="165">
@@ -7016,16 +7016,16 @@
         <v>45797</v>
       </c>
       <c r="B165" t="n">
-        <v>166.0802240203029</v>
+        <v>166.0802085335349</v>
       </c>
       <c r="C165" t="n">
-        <v>168.1458810248048</v>
+        <v>168.1458653454169</v>
       </c>
       <c r="D165" t="n">
-        <v>162.5576438733513</v>
+        <v>162.5576287150593</v>
       </c>
       <c r="E165" t="n">
-        <v>163.6353759765625</v>
+        <v>163.6353607177734</v>
       </c>
       <c r="F165" t="n">
         <v>46607700</v>
@@ -7037,19 +7037,19 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.0153716312839447</v>
+        <v>-0.01537172309927803</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0127365407140283</v>
+        <v>0.01273644627764314</v>
       </c>
       <c r="K165" t="n">
         <v>41442910</v>
       </c>
       <c r="L165" t="n">
-        <v>160.2310424804687</v>
+        <v>160.2310432434082</v>
       </c>
       <c r="M165" t="n">
-        <v>158.6754174804688</v>
+        <v>158.6754193115234</v>
       </c>
     </row>
     <row r="166">
@@ -7078,19 +7078,19 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.02793022907107123</v>
+        <v>0.0279303249242564</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04102250428481535</v>
+        <v>0.04102250428481446</v>
       </c>
       <c r="K166" t="n">
         <v>43557270</v>
       </c>
       <c r="L166" t="n">
-        <v>160.8901542663574</v>
+        <v>160.8901550292969</v>
       </c>
       <c r="M166" t="n">
-        <v>158.765627746582</v>
+        <v>158.7656295776367</v>
       </c>
     </row>
     <row r="167">
@@ -7098,16 +7098,16 @@
         <v>45799</v>
       </c>
       <c r="B167" t="n">
-        <v>171.488846170859</v>
+        <v>171.4888308245544</v>
       </c>
       <c r="C167" t="n">
-        <v>176.3985044728025</v>
+        <v>176.3984886871392</v>
       </c>
       <c r="D167" t="n">
-        <v>170.3512426036613</v>
+        <v>170.3512273591593</v>
       </c>
       <c r="E167" t="n">
-        <v>170.5108947753906</v>
+        <v>170.5108795166016</v>
       </c>
       <c r="F167" t="n">
         <v>74864400</v>
@@ -7119,19 +7119,19 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01370431908756653</v>
+        <v>0.01370422837253971</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05528900886087196</v>
+        <v>0.0552889144244868</v>
       </c>
       <c r="K167" t="n">
         <v>45005790</v>
       </c>
       <c r="L167" t="n">
-        <v>161.4684371948242</v>
+        <v>161.4684364318848</v>
       </c>
       <c r="M167" t="n">
-        <v>158.8406698608399</v>
+        <v>158.840671081543</v>
       </c>
     </row>
     <row r="168">
@@ -7160,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.01404577988549394</v>
+        <v>-0.01404569165377811</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04046665172683106</v>
+        <v>0.04046665172683017</v>
       </c>
       <c r="K168" t="n">
         <v>43964660</v>
@@ -7172,7 +7172,7 @@
         <v>161.7932525634766</v>
       </c>
       <c r="M168" t="n">
-        <v>158.9546298217773</v>
+        <v>158.9546313476563</v>
       </c>
     </row>
     <row r="169">
@@ -7204,16 +7204,16 @@
         <v>0.02629545367495023</v>
       </c>
       <c r="J169" t="n">
-        <v>0.06782619436764459</v>
+        <v>0.0678261943676437</v>
       </c>
       <c r="K169" t="n">
         <v>44377155</v>
       </c>
       <c r="L169" t="n">
-        <v>162.4064605712891</v>
+        <v>162.4064613342285</v>
       </c>
       <c r="M169" t="n">
-        <v>159.1025183105469</v>
+        <v>159.1025198364258</v>
       </c>
     </row>
     <row r="170">
@@ -7245,16 +7245,16 @@
         <v>-0.003123187021550566</v>
       </c>
       <c r="J170" t="n">
-        <v>0.06449117345612376</v>
+        <v>0.06449117345612287</v>
       </c>
       <c r="K170" t="n">
         <v>44775905</v>
       </c>
       <c r="L170" t="n">
-        <v>163.0151779174805</v>
+        <v>163.0151786804199</v>
       </c>
       <c r="M170" t="n">
-        <v>159.2635794067383</v>
+        <v>159.2635806274414</v>
       </c>
     </row>
     <row r="171">
@@ -7286,16 +7286,16 @@
         <v>-0.002900893316164055</v>
       </c>
       <c r="J171" t="n">
-        <v>0.06140319812592931</v>
+        <v>0.06140319812592843</v>
       </c>
       <c r="K171" t="n">
         <v>44492715</v>
       </c>
       <c r="L171" t="n">
-        <v>163.666805267334</v>
+        <v>163.6668060302734</v>
       </c>
       <c r="M171" t="n">
-        <v>159.4869091796875</v>
+        <v>159.4869100952149</v>
       </c>
     </row>
     <row r="172">
@@ -7303,16 +7303,16 @@
         <v>45807</v>
       </c>
       <c r="B172" t="n">
-        <v>170.9898943356549</v>
+        <v>170.9898791115166</v>
       </c>
       <c r="C172" t="n">
-        <v>171.8480875556994</v>
+        <v>171.8480722551516</v>
       </c>
       <c r="D172" t="n">
-        <v>167.0881079964574</v>
+        <v>167.0880931197159</v>
       </c>
       <c r="E172" t="n">
-        <v>171.3790740966797</v>
+        <v>171.3790588378906</v>
       </c>
       <c r="F172" t="n">
         <v>52639900</v>
@@ -7324,19 +7324,19 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.000698172295790167</v>
+        <v>-0.0006982612689385714</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06066215581833467</v>
+        <v>0.06066206138194952</v>
       </c>
       <c r="K172" t="n">
         <v>45614550</v>
       </c>
       <c r="L172" t="n">
-        <v>164.1877090454101</v>
+        <v>164.1877082824707</v>
       </c>
       <c r="M172" t="n">
-        <v>159.6435794067383</v>
+        <v>159.6435800170898</v>
       </c>
     </row>
     <row r="173">
@@ -7365,19 +7365,19 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.01577972806657424</v>
+        <v>-0.01577964043620894</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04392519542901496</v>
+        <v>0.04392519542901407</v>
       </c>
       <c r="K173" t="n">
         <v>46259415</v>
       </c>
       <c r="L173" t="n">
-        <v>164.437183380127</v>
+        <v>164.4371826171875</v>
       </c>
       <c r="M173" t="n">
-        <v>159.7679174804688</v>
+        <v>159.7679180908203</v>
       </c>
     </row>
     <row r="174">
@@ -7385,16 +7385,16 @@
         <v>45811</v>
       </c>
       <c r="B174" t="n">
-        <v>167.1380092117501</v>
+        <v>167.1379938326745</v>
       </c>
       <c r="C174" t="n">
-        <v>168.1259188868696</v>
+        <v>168.1259034168922</v>
       </c>
       <c r="D174" t="n">
-        <v>164.9326470385699</v>
+        <v>164.932631862419</v>
       </c>
       <c r="E174" t="n">
-        <v>165.8307495117188</v>
+        <v>165.8307342529297</v>
       </c>
       <c r="F174" t="n">
         <v>45084900</v>
@@ -7406,19 +7406,19 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.01686090685869868</v>
+        <v>-0.01686099732148727</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02632366994143753</v>
+        <v>0.02632357550505238</v>
       </c>
       <c r="K174" t="n">
         <v>47446570</v>
       </c>
       <c r="L174" t="n">
-        <v>164.5354759216308</v>
+        <v>164.5354751586914</v>
       </c>
       <c r="M174" t="n">
-        <v>159.8116253662109</v>
+        <v>159.8116256713867</v>
       </c>
     </row>
     <row r="175">
@@ -7426,16 +7426,16 @@
         <v>45812</v>
       </c>
       <c r="B175" t="n">
-        <v>166.3895635596744</v>
+        <v>166.3895786995168</v>
       </c>
       <c r="C175" t="n">
-        <v>167.8664487405706</v>
+        <v>167.8664640147953</v>
       </c>
       <c r="D175" t="n">
-        <v>166.0103573432975</v>
+        <v>166.0103724486359</v>
       </c>
       <c r="E175" t="n">
-        <v>167.6968078613281</v>
+        <v>167.6968231201172</v>
       </c>
       <c r="F175" t="n">
         <v>26900800</v>
@@ -7447,19 +7447,19 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.01125278849130162</v>
+        <v>0.01125297355519939</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0378726731229051</v>
+        <v>0.03787276755928848</v>
       </c>
       <c r="K175" t="n">
         <v>47727750</v>
       </c>
       <c r="L175" t="n">
-        <v>164.7759696960449</v>
+        <v>164.7759689331055</v>
       </c>
       <c r="M175" t="n">
-        <v>159.8190097045898</v>
+        <v>159.8190103149414</v>
       </c>
     </row>
     <row r="176">
@@ -7488,19 +7488,19 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0009522138767907862</v>
+        <v>0.0009521227998197102</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03886094988459465</v>
+        <v>0.03886094988459377</v>
       </c>
       <c r="K176" t="n">
         <v>43172200</v>
       </c>
       <c r="L176" t="n">
-        <v>165.6157012939453</v>
+        <v>165.6157005310059</v>
       </c>
       <c r="M176" t="n">
-        <v>159.7721087646484</v>
+        <v>159.7721090698242</v>
       </c>
     </row>
     <row r="177">
@@ -7508,16 +7508,16 @@
         <v>45814</v>
       </c>
       <c r="B177" t="n">
-        <v>170.4709708640225</v>
+        <v>170.4709858724235</v>
       </c>
       <c r="C177" t="n">
-        <v>174.1332558504034</v>
+        <v>174.1332711812348</v>
       </c>
       <c r="D177" t="n">
-        <v>170.4709708640225</v>
+        <v>170.4709858724235</v>
       </c>
       <c r="E177" t="n">
-        <v>173.3149719238281</v>
+        <v>173.3149871826172</v>
       </c>
       <c r="F177" t="n">
         <v>35731800</v>
@@ -7529,19 +7529,19 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0.03251873549573414</v>
+        <v>0.03251882639951131</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07264339433073896</v>
+        <v>0.07264348876712234</v>
       </c>
       <c r="K177" t="n">
         <v>42083855</v>
       </c>
       <c r="L177" t="n">
-        <v>166.5836616516113</v>
+        <v>166.5836624145508</v>
       </c>
       <c r="M177" t="n">
-        <v>159.9441464233398</v>
+        <v>159.9441467285156</v>
       </c>
     </row>
     <row r="178">
@@ -7570,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0.01510357560107667</v>
+        <v>0.01510348623055191</v>
       </c>
       <c r="J178" t="n">
-        <v>0.08884414493000881</v>
+        <v>0.0888441449300077</v>
       </c>
       <c r="K178" t="n">
         <v>41908885</v>
@@ -7582,7 +7582,7 @@
         <v>167.7588455200195</v>
       </c>
       <c r="M178" t="n">
-        <v>160.2248187255859</v>
+        <v>160.2248190307617</v>
       </c>
     </row>
     <row r="179">
@@ -7614,16 +7614,16 @@
         <v>0.01425412938613113</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1043646702531724</v>
+        <v>0.1043646702531713</v>
       </c>
       <c r="K179" t="n">
         <v>42790250</v>
       </c>
       <c r="L179" t="n">
-        <v>168.7745178222656</v>
+        <v>168.7745170593262</v>
       </c>
       <c r="M179" t="n">
-        <v>160.7135137939453</v>
+        <v>160.7135144042969</v>
       </c>
     </row>
     <row r="180">
@@ -7655,16 +7655,16 @@
         <v>-0.006998897152289407</v>
       </c>
       <c r="J180" t="n">
-        <v>0.09663533550744852</v>
+        <v>0.09663533550744741</v>
       </c>
       <c r="K180" t="n">
         <v>42253485</v>
       </c>
       <c r="L180" t="n">
-        <v>169.6743583679199</v>
+        <v>169.674356842041</v>
       </c>
       <c r="M180" t="n">
-        <v>161.1710443115234</v>
+        <v>161.171044921875</v>
       </c>
     </row>
     <row r="181">
@@ -7696,16 +7696,16 @@
         <v>-0.009303656153099471</v>
       </c>
       <c r="J181" t="n">
-        <v>0.08643261742054831</v>
+        <v>0.0864326174205472</v>
       </c>
       <c r="K181" t="n">
         <v>40862785</v>
       </c>
       <c r="L181" t="n">
-        <v>170.2003860473633</v>
+        <v>170.2003845214844</v>
       </c>
       <c r="M181" t="n">
-        <v>161.5471063232422</v>
+        <v>161.547106628418</v>
       </c>
     </row>
     <row r="182">
@@ -7737,16 +7737,16 @@
         <v>-0.005862285914259191</v>
       </c>
       <c r="J182" t="n">
-        <v>0.08006363879065215</v>
+        <v>0.08006363879065104</v>
       </c>
       <c r="K182" t="n">
         <v>40588605</v>
       </c>
       <c r="L182" t="n">
-        <v>170.7453109741211</v>
+        <v>170.7453094482422</v>
       </c>
       <c r="M182" t="n">
-        <v>161.9031857299805</v>
+        <v>161.9031860351562</v>
       </c>
     </row>
     <row r="183">
@@ -7778,16 +7778,16 @@
         <v>0.0120227046665613</v>
       </c>
       <c r="J183" t="n">
-        <v>0.09304892494092365</v>
+        <v>0.09304892494092254</v>
       </c>
       <c r="K183" t="n">
         <v>39815720</v>
       </c>
       <c r="L183" t="n">
-        <v>171.2838768005371</v>
+        <v>171.2838752746582</v>
       </c>
       <c r="M183" t="n">
-        <v>162.4273617553711</v>
+        <v>162.4273623657226</v>
       </c>
     </row>
     <row r="184">
@@ -7819,16 +7819,16 @@
         <v>-0.004638839332885669</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0879784465951392</v>
+        <v>0.08797844659513809</v>
       </c>
       <c r="K184" t="n">
         <v>39543065</v>
       </c>
       <c r="L184" t="n">
-        <v>171.7640159606934</v>
+        <v>171.7640144348144</v>
       </c>
       <c r="M184" t="n">
-        <v>163.0373370361328</v>
+        <v>163.0373376464844</v>
       </c>
     </row>
     <row r="185">
@@ -7860,16 +7860,16 @@
         <v>-0.01494737107073274</v>
       </c>
       <c r="J185" t="n">
-        <v>0.07171602903692231</v>
+        <v>0.0717160290369212</v>
       </c>
       <c r="K185" t="n">
         <v>38648055</v>
       </c>
       <c r="L185" t="n">
-        <v>172.240503692627</v>
+        <v>172.2405029296875</v>
       </c>
       <c r="M185" t="n">
-        <v>163.5718081665039</v>
+        <v>163.5718084716797</v>
       </c>
     </row>
     <row r="186">
@@ -7901,16 +7901,16 @@
         <v>-0.03854148767904275</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03041049890836311</v>
+        <v>0.030410498908362</v>
       </c>
       <c r="K186" t="n">
         <v>38760250</v>
       </c>
       <c r="L186" t="n">
-        <v>172.1547706604004</v>
+        <v>172.1547698974609</v>
       </c>
       <c r="M186" t="n">
-        <v>164.0137121582031</v>
+        <v>164.0137124633789</v>
       </c>
     </row>
     <row r="187">
@@ -7942,7 +7942,7 @@
         <v>-0.008701366307523717</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02144451971024308</v>
+        <v>0.02144451971024197</v>
       </c>
       <c r="K187" t="n">
         <v>37900580</v>
@@ -7983,7 +7983,7 @@
         <v>0.009564803520047294</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03121443584790073</v>
+        <v>0.0312144358478994</v>
       </c>
       <c r="K188" t="n">
         <v>38166225</v>
@@ -8024,7 +8024,7 @@
         <v>0.02344539071820195</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0553916612106049</v>
+        <v>0.05539166121060357</v>
       </c>
       <c r="K189" t="n">
         <v>38040390</v>
@@ -8033,7 +8033,7 @@
         <v>171.7061408996582</v>
       </c>
       <c r="M189" t="n">
-        <v>164.7038287353515</v>
+        <v>164.7038290405274</v>
       </c>
     </row>
     <row r="190">
@@ -8065,7 +8065,7 @@
         <v>0.01675646127947905</v>
       </c>
       <c r="J190" t="n">
-        <v>0.07307629071636557</v>
+        <v>0.07307629071636401</v>
       </c>
       <c r="K190" t="n">
         <v>37891025</v>
@@ -8074,7 +8074,7 @@
         <v>171.7754989624023</v>
       </c>
       <c r="M190" t="n">
-        <v>164.9968130493164</v>
+        <v>164.996813659668</v>
       </c>
     </row>
     <row r="191">
@@ -8106,7 +8106,7 @@
         <v>0.02875423063404114</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1039317738675454</v>
+        <v>0.1039317738675438</v>
       </c>
       <c r="K191" t="n">
         <v>41832170</v>
@@ -8115,7 +8115,7 @@
         <v>172.1190818786621</v>
       </c>
       <c r="M191" t="n">
-        <v>165.444592590332</v>
+        <v>165.4445932006836</v>
       </c>
     </row>
     <row r="192">
@@ -8147,16 +8147,16 @@
         <v>-0.01288297967259522</v>
       </c>
       <c r="J192" t="n">
-        <v>0.08970984326487774</v>
+        <v>0.08970984326487619</v>
       </c>
       <c r="K192" t="n">
         <v>42369120</v>
       </c>
       <c r="L192" t="n">
-        <v>172.3537544250488</v>
+        <v>172.3537551879883</v>
       </c>
       <c r="M192" t="n">
-        <v>165.9058880615234</v>
+        <v>165.9058883666992</v>
       </c>
     </row>
     <row r="193">
@@ -8188,16 +8188,16 @@
         <v>-0.002213086319032609</v>
       </c>
       <c r="J193" t="n">
-        <v>0.08729822131903298</v>
+        <v>0.08729822131903142</v>
       </c>
       <c r="K193" t="n">
         <v>42233730</v>
       </c>
       <c r="L193" t="n">
-        <v>172.7041595458984</v>
+        <v>172.7041603088379</v>
       </c>
       <c r="M193" t="n">
-        <v>166.4026989746094</v>
+        <v>166.4026992797852</v>
       </c>
     </row>
     <row r="194">
@@ -8229,16 +8229,16 @@
         <v>0.01592358292210783</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1046119047072669</v>
+        <v>0.1046119047072653</v>
       </c>
       <c r="K194" t="n">
         <v>41435930</v>
       </c>
       <c r="L194" t="n">
-        <v>173.3366401672363</v>
+        <v>173.3366416931152</v>
       </c>
       <c r="M194" t="n">
-        <v>167.0251132202148</v>
+        <v>167.0251135253906</v>
       </c>
     </row>
     <row r="195">
@@ -8270,13 +8270,13 @@
         <v>0.004982093956777733</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1101151850022937</v>
+        <v>0.1101151850022921</v>
       </c>
       <c r="K195" t="n">
         <v>41175375</v>
       </c>
       <c r="L195" t="n">
-        <v>173.9202781677246</v>
+        <v>173.9202789306641</v>
       </c>
       <c r="M195" t="n">
         <v>167.5894714355469</v>
@@ -8311,13 +8311,13 @@
         <v>-0.01526205844512252</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09317254216797077</v>
+        <v>0.09317254216796922</v>
       </c>
       <c r="K196" t="n">
         <v>41065200</v>
       </c>
       <c r="L196" t="n">
-        <v>174.3590545654297</v>
+        <v>174.3590553283692</v>
       </c>
       <c r="M196" t="n">
         <v>168.0216415405274</v>
@@ -8352,7 +8352,7 @@
         <v>-0.01374510658310346</v>
       </c>
       <c r="J197" t="n">
-        <v>0.07814676906214979</v>
+        <v>0.07814676906214824</v>
       </c>
       <c r="K197" t="n">
         <v>41300735</v>
@@ -8361,7 +8361,7 @@
         <v>174.403515625</v>
       </c>
       <c r="M197" t="n">
-        <v>168.3268206787109</v>
+        <v>168.3268203735352</v>
       </c>
     </row>
     <row r="198">
@@ -8393,7 +8393,7 @@
         <v>0.01296168769706973</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09212137077433824</v>
+        <v>0.09212137077433646</v>
       </c>
       <c r="K198" t="n">
         <v>42005220</v>
@@ -8434,7 +8434,7 @@
         <v>0.005661835122193759</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09830478190908676</v>
+        <v>0.09830478190908498</v>
       </c>
       <c r="K199" t="n">
         <v>40379535</v>
@@ -8443,7 +8443,7 @@
         <v>174.3810348510742</v>
       </c>
       <c r="M199" t="n">
-        <v>168.9674478149414</v>
+        <v>168.9674481201172</v>
       </c>
     </row>
     <row r="200">
@@ -8475,7 +8475,7 @@
         <v>0.01446917662459013</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1141963477861612</v>
+        <v>0.1141963477861594</v>
       </c>
       <c r="K200" t="n">
         <v>40511340</v>
@@ -8484,7 +8484,7 @@
         <v>174.5229080200195</v>
       </c>
       <c r="M200" t="n">
-        <v>169.3715594482422</v>
+        <v>169.371559753418</v>
       </c>
     </row>
     <row r="201">
@@ -8516,7 +8516,7 @@
         <v>0.007602992953269938</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1226675747669383</v>
+        <v>0.1226675747669366</v>
       </c>
       <c r="K201" t="n">
         <v>41091075</v>
@@ -8525,7 +8525,7 @@
         <v>174.8156455993652</v>
       </c>
       <c r="M201" t="n">
-        <v>169.8301892089844</v>
+        <v>169.8301895141602</v>
       </c>
     </row>
     <row r="202">
@@ -8557,7 +8557,7 @@
         <v>0.002423519418564002</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1253883814349781</v>
+        <v>0.1253883814349763</v>
       </c>
       <c r="K202" t="n">
         <v>41380335</v>
@@ -8598,7 +8598,7 @@
         <v>0.00532966056423767</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1313863195109635</v>
+        <v>0.1313863195109617</v>
       </c>
       <c r="K203" t="n">
         <v>41666085</v>
@@ -8639,7 +8639,7 @@
         <v>0.003333860026625057</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1351582031362515</v>
+        <v>0.1351582031362497</v>
       </c>
       <c r="K204" t="n">
         <v>42017065</v>
@@ -8648,7 +8648,7 @@
         <v>175.8727005004883</v>
       </c>
       <c r="M204" t="n">
-        <v>171.0211624145508</v>
+        <v>171.0211627197266</v>
       </c>
     </row>
     <row r="205">
@@ -8680,7 +8680,7 @@
         <v>0.00806182982389525</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1443096553931347</v>
+        <v>0.1443096553931329</v>
       </c>
       <c r="K205" t="n">
         <v>42282415</v>
@@ -8721,7 +8721,7 @@
         <v>0.02723447078026098</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1754743232665095</v>
+        <v>0.1754743232665077</v>
       </c>
       <c r="K206" t="n">
         <v>40789575</v>
@@ -8762,7 +8762,7 @@
         <v>0.006522880816912213</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1831418021805173</v>
+        <v>0.1831418021805156</v>
       </c>
       <c r="K207" t="n">
         <v>40139035</v>
@@ -8771,7 +8771,7 @@
         <v>178.9374588012695</v>
       </c>
       <c r="M207" t="n">
-        <v>172.9829467773438</v>
+        <v>172.9829470825195</v>
       </c>
     </row>
     <row r="208">
@@ -8803,7 +8803,7 @@
         <v>-0.005801195087693611</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1762781657696628</v>
+        <v>0.176278165769661</v>
       </c>
       <c r="K208" t="n">
         <v>41046915</v>
@@ -8844,7 +8844,7 @@
         <v>0.0101981627314498</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1882740419216331</v>
+        <v>0.1882740419216313</v>
       </c>
       <c r="K209" t="n">
         <v>43017050</v>
@@ -8853,7 +8853,7 @@
         <v>181.1829498291016</v>
       </c>
       <c r="M209" t="n">
-        <v>174.4129937744141</v>
+        <v>174.4129934692383</v>
       </c>
     </row>
     <row r="210">
@@ -8885,7 +8885,7 @@
         <v>0.005255746356593649</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1945193088880974</v>
+        <v>0.1945193088880957</v>
       </c>
       <c r="K210" t="n">
         <v>43416510</v>
@@ -8894,7 +8894,7 @@
         <v>182.1640724182129</v>
       </c>
       <c r="M210" t="n">
-        <v>175.0892468261719</v>
+        <v>175.0892462158203</v>
       </c>
     </row>
     <row r="211">
@@ -8926,7 +8926,7 @@
         <v>-0.00310587511308269</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1908092810945252</v>
+        <v>0.1908092810945234</v>
       </c>
       <c r="K211" t="n">
         <v>39916475</v>
@@ -8935,7 +8935,7 @@
         <v>182.8659446716309</v>
       </c>
       <c r="M211" t="n">
-        <v>175.6369561767578</v>
+        <v>175.6369555664062</v>
       </c>
     </row>
     <row r="212">
@@ -8967,7 +8967,7 @@
         <v>0.01646065372974426</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2104107803287878</v>
+        <v>0.210410780328786</v>
       </c>
       <c r="K212" t="n">
         <v>38816990</v>
@@ -8976,7 +8976,7 @@
         <v>183.8410720825195</v>
       </c>
       <c r="M212" t="n">
-        <v>176.2761492919922</v>
+        <v>176.2761486816406</v>
       </c>
     </row>
     <row r="213">
@@ -9008,7 +9008,7 @@
         <v>0.003984721165483096</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2152339297840928</v>
+        <v>0.2152339297840911</v>
       </c>
       <c r="K213" t="n">
         <v>38644035</v>
@@ -9017,7 +9017,7 @@
         <v>184.8746482849121</v>
       </c>
       <c r="M213" t="n">
-        <v>176.8864224243164</v>
+        <v>176.8864218139648</v>
       </c>
     </row>
     <row r="214">
@@ -9049,7 +9049,7 @@
         <v>-0.02355877991784605</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1866045010836102</v>
+        <v>0.1866045010836084</v>
       </c>
       <c r="K214" t="n">
         <v>39754050</v>
@@ -9058,7 +9058,7 @@
         <v>185.5370559692383</v>
       </c>
       <c r="M214" t="n">
-        <v>177.3971929931641</v>
+        <v>177.3971923828125</v>
       </c>
     </row>
     <row r="215">
@@ -9090,7 +9090,7 @@
         <v>-0.01443456170732949</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1694763851905239</v>
+        <v>0.1694763851905221</v>
       </c>
       <c r="K215" t="n">
         <v>40411175</v>
@@ -9099,7 +9099,7 @@
         <v>186.0166275024414</v>
       </c>
       <c r="M215" t="n">
-        <v>177.9037054443359</v>
+        <v>177.9037051391602</v>
       </c>
     </row>
     <row r="216">
@@ -9131,7 +9131,7 @@
         <v>0.03124829413518437</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2060205272591096</v>
+        <v>0.2060205272591078</v>
       </c>
       <c r="K216" t="n">
         <v>40279765</v>
@@ -9140,7 +9140,7 @@
         <v>186.928311920166</v>
       </c>
       <c r="M216" t="n">
-        <v>178.4369046020508</v>
+        <v>178.436904296875</v>
       </c>
     </row>
     <row r="217">
@@ -9172,7 +9172,7 @@
         <v>-0.001896995776040522</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2037327114130809</v>
+        <v>0.2037327114130791</v>
       </c>
       <c r="K217" t="n">
         <v>39837755</v>
@@ -9213,7 +9213,7 @@
         <v>0.007294320092593232</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2125131231160531</v>
+        <v>0.2125131231160513</v>
       </c>
       <c r="K218" t="n">
         <v>38764620</v>
@@ -9254,7 +9254,7 @@
         <v>0.002192925408914803</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2151720739523768</v>
+        <v>0.215172073952375</v>
       </c>
       <c r="K219" t="n">
         <v>38618090</v>
@@ -9295,7 +9295,7 @@
         <v>0.02493381452025423</v>
       </c>
       <c r="J220" t="n">
-        <v>0.245470949054498</v>
+        <v>0.2454709490544962</v>
       </c>
       <c r="K220" t="n">
         <v>38862035</v>
@@ -9336,7 +9336,7 @@
         <v>-0.002085155474878975</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2428739484862743</v>
+        <v>0.2428739484862725</v>
       </c>
       <c r="K221" t="n">
         <v>38526825</v>
@@ -9377,7 +9377,7 @@
         <v>0.01164177550810286</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2573432079794209</v>
+        <v>0.2573432079794191</v>
       </c>
       <c r="K222" t="n">
         <v>38374305</v>
@@ -9386,7 +9386,7 @@
         <v>192.9574188232422</v>
       </c>
       <c r="M222" t="n">
-        <v>181.7556005859375</v>
+        <v>181.7556008911133</v>
       </c>
     </row>
     <row r="223">
@@ -9418,7 +9418,7 @@
         <v>-0.006786597929936633</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2488101251669279</v>
+        <v>0.2488101251669261</v>
       </c>
       <c r="K223" t="n">
         <v>38136240</v>
@@ -9427,7 +9427,7 @@
         <v>193.9060707092285</v>
       </c>
       <c r="M223" t="n">
-        <v>182.4176962280274</v>
+        <v>182.4176965332031</v>
       </c>
     </row>
     <row r="224">
@@ -9459,7 +9459,7 @@
         <v>0.004852378555552539</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2548698246382448</v>
+        <v>0.254869824638243</v>
       </c>
       <c r="K224" t="n">
         <v>37798130</v>
@@ -9468,7 +9468,7 @@
         <v>194.8732055664063</v>
       </c>
       <c r="M224" t="n">
-        <v>183.1562542724609</v>
+        <v>183.1562548828125</v>
       </c>
     </row>
     <row r="225">
@@ -9500,7 +9500,7 @@
         <v>0.004730436677749195</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2608059068825144</v>
+        <v>0.2608059068825124</v>
       </c>
       <c r="K225" t="n">
         <v>37843975</v>
@@ -9509,7 +9509,7 @@
         <v>195.814363861084</v>
       </c>
       <c r="M225" t="n">
-        <v>183.8766738891601</v>
+        <v>183.8766741943359</v>
       </c>
     </row>
     <row r="226">
@@ -9541,7 +9541,7 @@
         <v>-0.001961672999222785</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2583326179777223</v>
+        <v>0.2583326179777203</v>
       </c>
       <c r="K226" t="n">
         <v>36480150</v>
@@ -9550,7 +9550,7 @@
         <v>196.483765411377</v>
       </c>
       <c r="M226" t="n">
-        <v>184.5859072875976</v>
+        <v>184.5859075927734</v>
       </c>
     </row>
     <row r="227">
@@ -9582,7 +9582,7 @@
         <v>-0.009483995050079685</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2463985976574679</v>
+        <v>0.2463985976574659</v>
       </c>
       <c r="K227" t="n">
         <v>35459150</v>
@@ -9623,7 +9623,7 @@
         <v>-0.0111624325821652</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2324857573406112</v>
+        <v>0.2324857573406092</v>
       </c>
       <c r="K228" t="n">
         <v>33972830</v>
@@ -9664,7 +9664,7 @@
         <v>0.002157312069615003</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2351446137405506</v>
+        <v>0.2351446137405486</v>
       </c>
       <c r="K229" t="n">
         <v>31217475</v>
@@ -9705,7 +9705,7 @@
         <v>0.0317396784706736</v>
       </c>
       <c r="J230" t="n">
-        <v>0.27434770664546</v>
+        <v>0.274347706645458</v>
       </c>
       <c r="K230" t="n">
         <v>31369530</v>
@@ -9746,7 +9746,7 @@
         <v>0.01164540883910137</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2891880066925177</v>
+        <v>0.2891880066925157</v>
       </c>
       <c r="K231" t="n">
         <v>30959000</v>
@@ -9787,7 +9787,7 @@
         <v>-0.006475164325745242</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2808403025024035</v>
+        <v>0.2808403025024016</v>
       </c>
       <c r="K232" t="n">
         <v>30312745</v>
@@ -9828,7 +9828,7 @@
         <v>0.001641377760488894</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2829426452896688</v>
+        <v>0.2829426452896668</v>
       </c>
       <c r="K233" t="n">
         <v>29841620</v>
@@ -9869,7 +9869,7 @@
         <v>0.02005018969827432</v>
       </c>
       <c r="J234" t="n">
-        <v>0.3086658886997327</v>
+        <v>0.3086658886997304</v>
       </c>
       <c r="K234" t="n">
         <v>28892125</v>
@@ -9910,7 +9910,7 @@
         <v>0.00600073100443832</v>
       </c>
       <c r="J235" t="n">
-        <v>0.3165188406725039</v>
+        <v>0.3165188406725017</v>
       </c>
       <c r="K235" t="n">
         <v>29136935</v>
@@ -9951,7 +9951,7 @@
         <v>-0.007326982143995853</v>
       </c>
       <c r="J236" t="n">
-        <v>0.3068727306346624</v>
+        <v>0.3068727306346601</v>
       </c>
       <c r="K236" t="n">
         <v>29935715</v>
@@ -9992,7 +9992,7 @@
         <v>0.09136500745700982</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4262751674144611</v>
+        <v>0.4262751674144587</v>
       </c>
       <c r="K237" t="n">
         <v>33522405</v>
@@ -10033,7 +10033,7 @@
         <v>0.007110032122039645</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4364160296696453</v>
+        <v>0.4364160296696429</v>
       </c>
       <c r="K238" t="n">
         <v>35028470</v>
@@ -10074,7 +10074,7 @@
         <v>0.0116228958734772</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4531113436134893</v>
+        <v>0.4531113436134866</v>
       </c>
       <c r="K239" t="n">
         <v>36041825</v>
@@ -10115,7 +10115,7 @@
         <v>-0.003194408754602418</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4484695120160382</v>
+        <v>0.4484695120160356</v>
       </c>
       <c r="K240" t="n">
         <v>35707470</v>
@@ -10156,7 +10156,7 @@
         <v>0.02388485625123682</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4830659980948404</v>
+        <v>0.4830659980948377</v>
       </c>
       <c r="K241" t="n">
         <v>36318900</v>
@@ -10197,7 +10197,7 @@
         <v>-0.001919654068747167</v>
       </c>
       <c r="J242" t="n">
-        <v>0.480219024417377</v>
+        <v>0.4802190244173745</v>
       </c>
       <c r="K242" t="n">
         <v>36556060</v>
@@ -10238,7 +10238,7 @@
         <v>0.005017338953168027</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4876457849878066</v>
+        <v>0.4876457849878042</v>
       </c>
       <c r="K243" t="n">
         <v>36668880</v>
@@ -10279,7 +10279,7 @@
         <v>0.001788941811812439</v>
       </c>
       <c r="J244" t="n">
-        <v>0.490307096733738</v>
+        <v>0.4903070967337355</v>
       </c>
       <c r="K244" t="n">
         <v>36745940</v>
@@ -10320,7 +10320,7 @@
         <v>0.04489201587040781</v>
       </c>
       <c r="J245" t="n">
-        <v>0.5572099865720903</v>
+        <v>0.5572099865720876</v>
       </c>
       <c r="K245" t="n">
         <v>37918560</v>
@@ -10361,7 +10361,7 @@
         <v>-0.001788470041534929</v>
       </c>
       <c r="J246" t="n">
-        <v>0.5544249631627272</v>
+        <v>0.5544249631627245</v>
       </c>
       <c r="K246" t="n">
         <v>38697715</v>
@@ -10402,7 +10402,7 @@
         <v>-0.006489906271085144</v>
       </c>
       <c r="J247" t="n">
-        <v>0.5443368908463662</v>
+        <v>0.5443368908463635</v>
       </c>
       <c r="K247" t="n">
         <v>39191105</v>
@@ -10443,7 +10443,7 @@
         <v>0.01001883545958404</v>
       </c>
       <c r="J248" t="n">
-        <v>0.5598093480499216</v>
+        <v>0.5598093480499189</v>
       </c>
       <c r="K248" t="n">
         <v>39305305</v>
@@ -10484,7 +10484,7 @@
         <v>0.01067334227843997</v>
       </c>
       <c r="J249" t="n">
-        <v>0.5764577271107687</v>
+        <v>0.576457727110766</v>
       </c>
       <c r="K249" t="n">
         <v>41095145</v>
@@ -10525,7 +10525,7 @@
         <v>-0.008597685422860546</v>
       </c>
       <c r="J250" t="n">
-        <v>0.5629038394906325</v>
+        <v>0.5629038394906298</v>
       </c>
       <c r="K250" t="n">
         <v>40568320</v>
@@ -10542,7 +10542,7 @@
         <v>45923</v>
       </c>
       <c r="B251" t="n">
-        <v>253.3000030517578</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="C251" t="n">
         <v>254.3600006103516</v>
@@ -10554,7 +10554,7 @@
         <v>251.6600036621094</v>
       </c>
       <c r="F251" t="n">
-        <v>25249414</v>
+        <v>26600700</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -10566,10 +10566,10 @@
         <v>-0.003445115912536934</v>
       </c>
       <c r="J251" t="n">
-        <v>0.5575194546034383</v>
+        <v>0.5575194546034357</v>
       </c>
       <c r="K251" t="n">
-        <v>40334345.7</v>
+        <v>40401910</v>
       </c>
       <c r="L251" t="n">
         <v>235.2083786010742</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25249414</v>
+        <v>26600700</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
